--- a/willyan.xlsx
+++ b/willyan.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="214">
   <si>
     <t>TABELA GERAL</t>
   </si>
@@ -294,6 +295,378 @@
   </si>
   <si>
     <t>ZENEIDE</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>MANICURE-FRIBRA</t>
+  </si>
+  <si>
+    <t>DONA SOCORRO</t>
+  </si>
+  <si>
+    <t>SHIRLEY</t>
+  </si>
+  <si>
+    <t>NEIDE</t>
+  </si>
+  <si>
+    <t>MARINÊS</t>
+  </si>
+  <si>
+    <t>ALYNE</t>
+  </si>
+  <si>
+    <t>HELENA</t>
+  </si>
+  <si>
+    <t>CIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUNA </t>
+  </si>
+  <si>
+    <t>BRUNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PÉ </t>
+  </si>
+  <si>
+    <t>TAMMY</t>
+  </si>
+  <si>
+    <t>PATY</t>
+  </si>
+  <si>
+    <t>RAFA</t>
+  </si>
+  <si>
+    <t>LINEIDE</t>
+  </si>
+  <si>
+    <t>KETELIM</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO-CILIOS</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO-GEL</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>MELISSA</t>
+  </si>
+  <si>
+    <t>SABRINA</t>
+  </si>
+  <si>
+    <t>LILIAM</t>
+  </si>
+  <si>
+    <t>ADRIANA</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO+PÉ</t>
+  </si>
+  <si>
+    <t>RETIRADA-CALIBRAÇÃO</t>
+  </si>
+  <si>
+    <t>THAIS</t>
+  </si>
+  <si>
+    <t>LORRANY</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO-BLINDAGEM</t>
+  </si>
+  <si>
+    <t>CAMILA</t>
+  </si>
+  <si>
+    <t>PÉ+BLINDAGEM</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>LUANA</t>
+  </si>
+  <si>
+    <t>ALICE</t>
+  </si>
+  <si>
+    <t>ISABELLI</t>
+  </si>
+  <si>
+    <t>JACH</t>
+  </si>
+  <si>
+    <t>ANDRIA</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>LUDIMILA</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO-FIBRA</t>
+  </si>
+  <si>
+    <t>MÃO+SOBRANCELHA</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>ANDRESSA</t>
+  </si>
+  <si>
+    <t>VALÉRIA</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>DANI</t>
+  </si>
+  <si>
+    <t>ANGELITA</t>
+  </si>
+  <si>
+    <t>PÉ+SOBRANCELHA</t>
+  </si>
+  <si>
+    <t>CÍLIOS+SOBRANCELHA</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>DAIANE</t>
+  </si>
+  <si>
+    <t>ALONGAMENTO DE CÍLIOS</t>
+  </si>
+  <si>
+    <t>DAYSE</t>
+  </si>
+  <si>
+    <t>MAIA</t>
+  </si>
+  <si>
+    <t>KETELYN</t>
+  </si>
+  <si>
+    <t>CLEO</t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
+    <t>NARA</t>
+  </si>
+  <si>
+    <t>LORRANA</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>YARA</t>
+  </si>
+  <si>
+    <t>PIETRA</t>
+  </si>
+  <si>
+    <t>TELMA</t>
+  </si>
+  <si>
+    <t>PONINHA</t>
+  </si>
+  <si>
+    <t>LIVIA</t>
+  </si>
+  <si>
+    <t>BLINDAGEM</t>
+  </si>
+  <si>
+    <t>GRASIELA</t>
+  </si>
+  <si>
+    <t>TALYTA</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>NOELI</t>
+  </si>
+  <si>
+    <t>MIKAELA</t>
+  </si>
+  <si>
+    <t>PE+MÃO</t>
+  </si>
+  <si>
+    <t>LAIDA</t>
+  </si>
+  <si>
+    <t>JAQUELINE</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO+BLINDAGEM</t>
+  </si>
+  <si>
+    <t>NEUSA</t>
+  </si>
+  <si>
+    <t>GLAUCEA</t>
+  </si>
+  <si>
+    <t>THAYNA</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO DE FIBRA</t>
+  </si>
+  <si>
+    <t>LASH</t>
+  </si>
+  <si>
+    <t>CAROL</t>
+  </si>
+  <si>
+    <t>MÃ0+SOBRANCLEHA</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>NILDA</t>
+  </si>
+  <si>
+    <t>THAINA</t>
+  </si>
+  <si>
+    <t>LIFANA</t>
+  </si>
+  <si>
+    <t>MANUELA</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO-CÍLIOS</t>
+  </si>
+  <si>
+    <t>REMOÇÃO</t>
+  </si>
+  <si>
+    <t>TAMIS</t>
+  </si>
+  <si>
+    <t>BRENDA</t>
+  </si>
+  <si>
+    <t>PALOMA</t>
+  </si>
+  <si>
+    <t>MARY</t>
+  </si>
+  <si>
+    <t>SARA</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>EDILAINE</t>
+  </si>
+  <si>
+    <t>FERNANDA</t>
+  </si>
+  <si>
+    <t>DUDA</t>
+  </si>
+  <si>
+    <t>NAMMY</t>
+  </si>
+  <si>
+    <t>DAYANE</t>
+  </si>
+  <si>
+    <t>LEONOR</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>ISALDE</t>
+  </si>
+  <si>
+    <t>ISABELY</t>
+  </si>
+  <si>
+    <t>BLINDAGEM+PÉ E MÃO</t>
+  </si>
+  <si>
+    <t>ALONGAMENTO DE FIBRA</t>
+  </si>
+  <si>
+    <t>FANNY</t>
+  </si>
+  <si>
+    <t>DAMI</t>
+  </si>
+  <si>
+    <t>MARINES</t>
+  </si>
+  <si>
+    <t>SAMY</t>
+  </si>
+  <si>
+    <t>ANTONIA</t>
+  </si>
+  <si>
+    <t>DAIANY</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>MANUTENCÇÃO-BLINDAGEM</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>MAITE</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO-FIBRA+PÉ</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO FIBRA+PÉ</t>
   </si>
 </sst>
 </file>
@@ -303,7 +676,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +689,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -340,11 +719,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,7 +736,30 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -391,8 +797,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B3:G68" totalsRowShown="0">
-  <autoFilter ref="B3:G68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B3:G75" totalsRowShown="0">
+  <autoFilter ref="B3:G75"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="DATA" dataDxfId="5"/>
+    <tableColumn id="2" name="HORARIO" dataDxfId="4"/>
+    <tableColumn id="3" name="CLIENTE"/>
+    <tableColumn id="4" name="PROCEDIMENTO"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="FORMA DE PAGAMENTO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="I7:N216" totalsRowShown="0">
+  <autoFilter ref="I7:N216"/>
   <tableColumns count="6">
     <tableColumn id="1" name="DATA" dataDxfId="2"/>
     <tableColumn id="2" name="HORARIO" dataDxfId="1"/>
@@ -668,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G68"/>
+  <dimension ref="B2:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,14 +1107,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -2008,12 +2429,262 @@
       <c r="E68" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="5">
         <v>130</v>
       </c>
       <c r="G68" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D69" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="5">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="5">
+        <v>50</v>
+      </c>
+      <c r="G70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D71" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="5">
+        <v>145</v>
+      </c>
+      <c r="G71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D72" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="5">
+        <v>60</v>
+      </c>
+      <c r="G72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="5">
+        <v>162</v>
+      </c>
+      <c r="G73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="5">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D75" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="5">
+        <v>160</v>
+      </c>
+      <c r="G75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="C78" s="2"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="2"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+      <c r="C81" s="2"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+      <c r="C82" s="2"/>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+      <c r="C83" s="2"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="2"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+      <c r="C85" s="2"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+      <c r="C86" s="2"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+      <c r="C87" s="2"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+      <c r="C88" s="2"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+      <c r="C89" s="2"/>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="C90" s="2"/>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+      <c r="C91" s="2"/>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+      <c r="C92" s="2"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="C93" s="2"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+      <c r="C94" s="2"/>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+      <c r="C95" s="2"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="2"/>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+      <c r="C97" s="2"/>
+      <c r="F97" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2024,4 +2695,4245 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I6:N216"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O216" sqref="O216"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="38.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>45384</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="3">
+        <v>60</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>45384</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="3">
+        <v>35</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>45384</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="3">
+        <v>160</v>
+      </c>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>45384</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="3">
+        <v>35</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>45384</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="3">
+        <v>160</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>45384</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="3">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>45384</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="3">
+        <v>35</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>45385</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="3">
+        <v>160</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>45385</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="3">
+        <v>60</v>
+      </c>
+      <c r="N16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>45385</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="3">
+        <v>160</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>45385</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="3">
+        <v>60</v>
+      </c>
+      <c r="N18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>45385</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="3">
+        <v>200</v>
+      </c>
+      <c r="N19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>45385</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="3">
+        <v>30</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <v>45385</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="3">
+        <v>160</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <v>45385</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="K22" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="3">
+        <v>60</v>
+      </c>
+      <c r="N22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <v>45386</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="3">
+        <v>35</v>
+      </c>
+      <c r="N23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>45386</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K24" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="3">
+        <v>120</v>
+      </c>
+      <c r="N24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <v>45386</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K25" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" s="3">
+        <v>80</v>
+      </c>
+      <c r="N25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <v>45386</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K26" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" t="s">
+        <v>114</v>
+      </c>
+      <c r="M26" s="3">
+        <v>115</v>
+      </c>
+      <c r="N26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <v>45386</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K27" t="s">
+        <v>110</v>
+      </c>
+      <c r="L27" t="s">
+        <v>115</v>
+      </c>
+      <c r="M27" s="3">
+        <v>50</v>
+      </c>
+      <c r="N27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="1">
+        <v>45386</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K28" t="s">
+        <v>111</v>
+      </c>
+      <c r="L28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="3">
+        <v>50</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <v>45386</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K29" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="3">
+        <v>65</v>
+      </c>
+      <c r="N29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <v>45386</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K30" t="s">
+        <v>113</v>
+      </c>
+      <c r="L30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="3">
+        <v>30</v>
+      </c>
+      <c r="N30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <v>45387</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L31" t="s">
+        <v>114</v>
+      </c>
+      <c r="M31" s="3">
+        <v>115</v>
+      </c>
+      <c r="N31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <v>45387</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="3">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <v>45387</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="3">
+        <v>65</v>
+      </c>
+      <c r="N33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>45387</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" t="s">
+        <v>118</v>
+      </c>
+      <c r="M34" s="3">
+        <v>75</v>
+      </c>
+      <c r="N34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <v>45387</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K35" t="s">
+        <v>119</v>
+      </c>
+      <c r="L35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="3">
+        <v>30</v>
+      </c>
+      <c r="N35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I36" s="1">
+        <v>45387</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="3">
+        <v>65</v>
+      </c>
+      <c r="N36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <v>45387</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K37" t="s">
+        <v>87</v>
+      </c>
+      <c r="L37" t="s">
+        <v>120</v>
+      </c>
+      <c r="M37" s="3">
+        <v>85</v>
+      </c>
+      <c r="N37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I38" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K38" t="s">
+        <v>121</v>
+      </c>
+      <c r="L38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="3">
+        <v>65</v>
+      </c>
+      <c r="N38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I39" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K39" t="s">
+        <v>122</v>
+      </c>
+      <c r="L39" t="s">
+        <v>129</v>
+      </c>
+      <c r="M39" s="4">
+        <v>50</v>
+      </c>
+      <c r="N39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I40" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K40" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="4">
+        <v>65</v>
+      </c>
+      <c r="N40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K41" t="s">
+        <v>122</v>
+      </c>
+      <c r="L41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" s="4">
+        <v>35</v>
+      </c>
+      <c r="N41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I42" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="s">
+        <v>124</v>
+      </c>
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="4">
+        <v>30</v>
+      </c>
+      <c r="N42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I43" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" t="s">
+        <v>118</v>
+      </c>
+      <c r="M43" s="4">
+        <v>75</v>
+      </c>
+      <c r="N43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I44" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K44" t="s">
+        <v>125</v>
+      </c>
+      <c r="L44" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="4">
+        <v>35</v>
+      </c>
+      <c r="N44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I45" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" s="4">
+        <v>35</v>
+      </c>
+      <c r="N45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I46" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="4">
+        <v>35</v>
+      </c>
+      <c r="N46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I47" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M47" s="4">
+        <v>130</v>
+      </c>
+      <c r="N47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I48" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K48" t="s">
+        <v>126</v>
+      </c>
+      <c r="L48" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="4">
+        <v>35</v>
+      </c>
+      <c r="N48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I49" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="K49" t="s">
+        <v>126</v>
+      </c>
+      <c r="L49" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="4">
+        <v>30</v>
+      </c>
+      <c r="N49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I50" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="K50" t="s">
+        <v>127</v>
+      </c>
+      <c r="L50" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50" s="4">
+        <v>65</v>
+      </c>
+      <c r="N50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I51" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K51" t="s">
+        <v>94</v>
+      </c>
+      <c r="L51" t="s">
+        <v>131</v>
+      </c>
+      <c r="M51" s="4">
+        <v>70</v>
+      </c>
+      <c r="N51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I52" s="1">
+        <v>45388</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K52" t="s">
+        <v>128</v>
+      </c>
+      <c r="L52" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" s="4">
+        <v>35</v>
+      </c>
+      <c r="N52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I53" s="1">
+        <v>45391</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K53" t="s">
+        <v>132</v>
+      </c>
+      <c r="L53" t="s">
+        <v>138</v>
+      </c>
+      <c r="M53" s="4">
+        <v>60</v>
+      </c>
+      <c r="N53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I54" s="1">
+        <v>45391</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="K54" t="s">
+        <v>133</v>
+      </c>
+      <c r="L54" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="3">
+        <v>65</v>
+      </c>
+      <c r="N54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I55" s="1">
+        <v>45391</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="K55" t="s">
+        <v>134</v>
+      </c>
+      <c r="L55" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55" s="3">
+        <v>65</v>
+      </c>
+      <c r="N55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I56" s="1">
+        <v>45391</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K56" t="s">
+        <v>135</v>
+      </c>
+      <c r="L56" t="s">
+        <v>79</v>
+      </c>
+      <c r="M56" s="3">
+        <v>25</v>
+      </c>
+      <c r="N56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I57" s="1">
+        <v>45391</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="K57" t="s">
+        <v>136</v>
+      </c>
+      <c r="L57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" s="3">
+        <v>30</v>
+      </c>
+      <c r="N57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I58" s="1">
+        <v>45391</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="K58" t="s">
+        <v>136</v>
+      </c>
+      <c r="L58" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="3">
+        <v>30</v>
+      </c>
+      <c r="N58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I59" s="1">
+        <v>45391</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K59" t="s">
+        <v>137</v>
+      </c>
+      <c r="L59" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="3">
+        <v>30</v>
+      </c>
+      <c r="N59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I60" s="1">
+        <v>45391</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="K60" t="s">
+        <v>121</v>
+      </c>
+      <c r="L60" t="s">
+        <v>139</v>
+      </c>
+      <c r="M60" s="3">
+        <v>125</v>
+      </c>
+      <c r="N60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I61" s="1">
+        <v>45392</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K61" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" t="s">
+        <v>114</v>
+      </c>
+      <c r="M61" s="3">
+        <v>85</v>
+      </c>
+      <c r="N61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I62" s="1">
+        <v>45392</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K62" t="s">
+        <v>140</v>
+      </c>
+      <c r="L62" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="3">
+        <v>35</v>
+      </c>
+      <c r="N62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I63" s="1">
+        <v>45392</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="s">
+        <v>141</v>
+      </c>
+      <c r="L63" t="s">
+        <v>138</v>
+      </c>
+      <c r="M63" s="3">
+        <v>60</v>
+      </c>
+      <c r="N63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I64" s="1">
+        <v>45392</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="K64" t="s">
+        <v>13</v>
+      </c>
+      <c r="L64" t="s">
+        <v>139</v>
+      </c>
+      <c r="M64" s="3">
+        <v>105</v>
+      </c>
+      <c r="N64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I65" s="1">
+        <v>45392</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K65" t="s">
+        <v>111</v>
+      </c>
+      <c r="L65" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="3">
+        <v>30</v>
+      </c>
+      <c r="N65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I66" s="1">
+        <v>45392</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K66" t="s">
+        <v>111</v>
+      </c>
+      <c r="L66" t="s">
+        <v>142</v>
+      </c>
+      <c r="M66" s="3">
+        <v>100</v>
+      </c>
+      <c r="N66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I67" s="1">
+        <v>45392</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K67" t="s">
+        <v>42</v>
+      </c>
+      <c r="L67" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="3">
+        <v>35</v>
+      </c>
+      <c r="N67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I68" s="1">
+        <v>45392</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K68" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" t="s">
+        <v>77</v>
+      </c>
+      <c r="M68" s="3">
+        <v>90</v>
+      </c>
+      <c r="N68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I69" s="1">
+        <v>45392</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K69" t="s">
+        <v>143</v>
+      </c>
+      <c r="L69" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="3">
+        <v>35</v>
+      </c>
+      <c r="N69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I70" s="1">
+        <v>45392</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K70" t="s">
+        <v>144</v>
+      </c>
+      <c r="L70" t="s">
+        <v>79</v>
+      </c>
+      <c r="M70" s="3">
+        <v>25</v>
+      </c>
+      <c r="N70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I71" s="1">
+        <v>45393</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K71" t="s">
+        <v>145</v>
+      </c>
+      <c r="L71" t="s">
+        <v>64</v>
+      </c>
+      <c r="M71" s="3">
+        <v>100</v>
+      </c>
+      <c r="N71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I72" s="1">
+        <v>45393</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="s">
+        <v>146</v>
+      </c>
+      <c r="L72" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" s="5">
+        <v>30</v>
+      </c>
+      <c r="N72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I73" s="1">
+        <v>45393</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="s">
+        <v>147</v>
+      </c>
+      <c r="L73" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" s="5">
+        <v>30</v>
+      </c>
+      <c r="N73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I74" s="1">
+        <v>45393</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K74" t="s">
+        <v>7</v>
+      </c>
+      <c r="L74" t="s">
+        <v>118</v>
+      </c>
+      <c r="M74" s="5">
+        <v>75</v>
+      </c>
+      <c r="N74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I75" s="1">
+        <v>45393</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K75" t="s">
+        <v>7</v>
+      </c>
+      <c r="L75" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="5">
+        <v>35</v>
+      </c>
+      <c r="N75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I76" s="1">
+        <v>45393</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="K76" t="s">
+        <v>147</v>
+      </c>
+      <c r="L76" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="5">
+        <v>35</v>
+      </c>
+      <c r="N76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I77" s="1">
+        <v>45393</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K77" t="s">
+        <v>7</v>
+      </c>
+      <c r="L77" t="s">
+        <v>79</v>
+      </c>
+      <c r="M77" s="5">
+        <v>25</v>
+      </c>
+      <c r="N77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I78" s="1">
+        <v>45393</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K78" t="s">
+        <v>150</v>
+      </c>
+      <c r="L78" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" s="5">
+        <v>35</v>
+      </c>
+      <c r="N78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I79" s="1">
+        <v>45393</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K79" t="s">
+        <v>148</v>
+      </c>
+      <c r="L79" t="s">
+        <v>118</v>
+      </c>
+      <c r="M79" s="5">
+        <v>75</v>
+      </c>
+      <c r="N79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I80" s="1">
+        <v>45393</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K80" t="s">
+        <v>149</v>
+      </c>
+      <c r="L80" t="s">
+        <v>22</v>
+      </c>
+      <c r="M80" s="4">
+        <v>65</v>
+      </c>
+      <c r="N80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I81" s="1">
+        <v>45393</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K81" t="s">
+        <v>78</v>
+      </c>
+      <c r="L81" t="s">
+        <v>22</v>
+      </c>
+      <c r="M81" s="4">
+        <v>65</v>
+      </c>
+      <c r="N81" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I82" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K82" t="s">
+        <v>151</v>
+      </c>
+      <c r="L82" t="s">
+        <v>130</v>
+      </c>
+      <c r="M82" s="4">
+        <v>75</v>
+      </c>
+      <c r="N82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I83" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K83" t="s">
+        <v>84</v>
+      </c>
+      <c r="L83" t="s">
+        <v>79</v>
+      </c>
+      <c r="M83" s="4">
+        <v>25</v>
+      </c>
+      <c r="N83" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I84" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K84" t="s">
+        <v>152</v>
+      </c>
+      <c r="L84" t="s">
+        <v>79</v>
+      </c>
+      <c r="M84" s="4">
+        <v>25</v>
+      </c>
+      <c r="N84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I85" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="K85" t="s">
+        <v>103</v>
+      </c>
+      <c r="L85" t="s">
+        <v>22</v>
+      </c>
+      <c r="M85" s="4">
+        <v>65</v>
+      </c>
+      <c r="N85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I86" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K86" t="s">
+        <v>153</v>
+      </c>
+      <c r="L86" t="s">
+        <v>156</v>
+      </c>
+      <c r="M86" s="4">
+        <v>50</v>
+      </c>
+      <c r="N86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I87" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="K87" t="s">
+        <v>84</v>
+      </c>
+      <c r="L87" t="s">
+        <v>12</v>
+      </c>
+      <c r="M87" s="4">
+        <v>30</v>
+      </c>
+      <c r="N87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I88" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K88" t="s">
+        <v>154</v>
+      </c>
+      <c r="L88" t="s">
+        <v>22</v>
+      </c>
+      <c r="M88" s="4">
+        <v>65</v>
+      </c>
+      <c r="N88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I89" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K89" t="s">
+        <v>35</v>
+      </c>
+      <c r="L89" t="s">
+        <v>130</v>
+      </c>
+      <c r="M89" s="4">
+        <v>75</v>
+      </c>
+      <c r="N89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I90" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K90" t="s">
+        <v>155</v>
+      </c>
+      <c r="L90" t="s">
+        <v>22</v>
+      </c>
+      <c r="M90" s="4">
+        <v>65</v>
+      </c>
+      <c r="N90" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I91" s="1">
+        <v>45395</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K91" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" t="s">
+        <v>162</v>
+      </c>
+      <c r="M91" s="4">
+        <v>65</v>
+      </c>
+      <c r="N91" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I92" s="1">
+        <v>45395</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K92" t="s">
+        <v>93</v>
+      </c>
+      <c r="L92" t="s">
+        <v>118</v>
+      </c>
+      <c r="M92" s="4">
+        <v>135</v>
+      </c>
+      <c r="N92" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I93" s="1">
+        <v>45395</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K93" t="s">
+        <v>157</v>
+      </c>
+      <c r="L93" t="s">
+        <v>22</v>
+      </c>
+      <c r="M93" s="4">
+        <v>65</v>
+      </c>
+      <c r="N93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I94" s="1">
+        <v>45395</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K94" t="s">
+        <v>158</v>
+      </c>
+      <c r="L94" t="s">
+        <v>130</v>
+      </c>
+      <c r="M94" s="4">
+        <v>130</v>
+      </c>
+      <c r="N94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I95" s="1">
+        <v>45395</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K95" t="s">
+        <v>124</v>
+      </c>
+      <c r="L95" t="s">
+        <v>22</v>
+      </c>
+      <c r="M95" s="4">
+        <v>65</v>
+      </c>
+      <c r="N95" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I96" s="1">
+        <v>45395</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K96" t="s">
+        <v>158</v>
+      </c>
+      <c r="L96" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" s="4">
+        <v>35</v>
+      </c>
+      <c r="N96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I97" s="1">
+        <v>45395</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K97" t="s">
+        <v>135</v>
+      </c>
+      <c r="L97" t="s">
+        <v>114</v>
+      </c>
+      <c r="M97" s="4">
+        <v>75</v>
+      </c>
+      <c r="N97" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I98" s="1">
+        <v>45395</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K98" t="s">
+        <v>58</v>
+      </c>
+      <c r="L98" t="s">
+        <v>22</v>
+      </c>
+      <c r="M98" s="4">
+        <v>65</v>
+      </c>
+      <c r="N98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I99" s="1">
+        <v>45395</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="K99" t="s">
+        <v>159</v>
+      </c>
+      <c r="L99" t="s">
+        <v>130</v>
+      </c>
+      <c r="M99" s="4">
+        <v>180</v>
+      </c>
+      <c r="N99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I100" s="1">
+        <v>45395</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K100" t="s">
+        <v>160</v>
+      </c>
+      <c r="L100" t="s">
+        <v>162</v>
+      </c>
+      <c r="M100" s="4">
+        <v>65</v>
+      </c>
+      <c r="N100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I101" s="1">
+        <v>45395</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K101" t="s">
+        <v>161</v>
+      </c>
+      <c r="L101" t="s">
+        <v>18</v>
+      </c>
+      <c r="M101" s="4">
+        <v>35</v>
+      </c>
+      <c r="N101" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I102" s="1">
+        <v>45396</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="K102" t="s">
+        <v>85</v>
+      </c>
+      <c r="L102" t="s">
+        <v>165</v>
+      </c>
+      <c r="M102" s="4">
+        <v>135</v>
+      </c>
+      <c r="N102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I103" s="1">
+        <v>45396</v>
+      </c>
+      <c r="J103" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="K103" t="s">
+        <v>122</v>
+      </c>
+      <c r="L103" t="s">
+        <v>138</v>
+      </c>
+      <c r="M103" s="4">
+        <v>60</v>
+      </c>
+      <c r="N103" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I104" s="1">
+        <v>45396</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K104" t="s">
+        <v>163</v>
+      </c>
+      <c r="L104" t="s">
+        <v>12</v>
+      </c>
+      <c r="M104" s="4">
+        <v>30</v>
+      </c>
+      <c r="N104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I105" s="1">
+        <v>45396</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K105" t="s">
+        <v>164</v>
+      </c>
+      <c r="L105" t="s">
+        <v>64</v>
+      </c>
+      <c r="M105" s="4">
+        <v>100</v>
+      </c>
+      <c r="N105" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I106" s="1">
+        <v>45396</v>
+      </c>
+      <c r="J106" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K106" t="s">
+        <v>61</v>
+      </c>
+      <c r="L106" t="s">
+        <v>114</v>
+      </c>
+      <c r="M106" s="4">
+        <v>85</v>
+      </c>
+      <c r="N106" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I107" s="1">
+        <v>45398</v>
+      </c>
+      <c r="J107" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K107" t="s">
+        <v>166</v>
+      </c>
+      <c r="L107" t="s">
+        <v>12</v>
+      </c>
+      <c r="M107" s="4">
+        <v>30</v>
+      </c>
+      <c r="N107" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I108" s="1">
+        <v>45398</v>
+      </c>
+      <c r="J108" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K108" t="s">
+        <v>167</v>
+      </c>
+      <c r="L108" t="s">
+        <v>169</v>
+      </c>
+      <c r="M108" s="4">
+        <v>75</v>
+      </c>
+      <c r="N108" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I109" s="1">
+        <v>45398</v>
+      </c>
+      <c r="J109" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K109" t="s">
+        <v>168</v>
+      </c>
+      <c r="L109" t="s">
+        <v>170</v>
+      </c>
+      <c r="M109" s="4">
+        <v>80</v>
+      </c>
+      <c r="N109" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I110" s="1">
+        <v>45398</v>
+      </c>
+      <c r="J110" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K110" t="s">
+        <v>86</v>
+      </c>
+      <c r="L110" t="s">
+        <v>79</v>
+      </c>
+      <c r="M110" s="4">
+        <v>25</v>
+      </c>
+      <c r="N110" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I111" s="1">
+        <v>45398</v>
+      </c>
+      <c r="J111" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L111" t="s">
+        <v>130</v>
+      </c>
+      <c r="M111" s="4">
+        <v>75</v>
+      </c>
+      <c r="N111" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I112" s="1">
+        <v>45399</v>
+      </c>
+      <c r="J112" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K112" t="s">
+        <v>171</v>
+      </c>
+      <c r="L112" t="s">
+        <v>18</v>
+      </c>
+      <c r="M112" s="4">
+        <v>35</v>
+      </c>
+      <c r="N112" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I113" s="1">
+        <v>45399</v>
+      </c>
+      <c r="J113" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K113" t="s">
+        <v>173</v>
+      </c>
+      <c r="L113" t="s">
+        <v>18</v>
+      </c>
+      <c r="M113" s="4">
+        <v>35</v>
+      </c>
+      <c r="N113" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I114" s="1">
+        <v>45399</v>
+      </c>
+      <c r="J114" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K114" t="s">
+        <v>174</v>
+      </c>
+      <c r="L114" t="s">
+        <v>172</v>
+      </c>
+      <c r="M114" s="4">
+        <v>55</v>
+      </c>
+      <c r="N114" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I115" s="1">
+        <v>45399</v>
+      </c>
+      <c r="J115" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K115" t="s">
+        <v>84</v>
+      </c>
+      <c r="L115" t="s">
+        <v>22</v>
+      </c>
+      <c r="M115" s="4">
+        <v>65</v>
+      </c>
+      <c r="N115" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I116" s="1">
+        <v>45399</v>
+      </c>
+      <c r="J116" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K116" t="s">
+        <v>175</v>
+      </c>
+      <c r="L116" t="s">
+        <v>12</v>
+      </c>
+      <c r="M116" s="4">
+        <v>30</v>
+      </c>
+      <c r="N116" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I117" s="1">
+        <v>45399</v>
+      </c>
+      <c r="J117" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L117" t="s">
+        <v>18</v>
+      </c>
+      <c r="M117" s="4">
+        <v>35</v>
+      </c>
+      <c r="N117" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I118" s="1">
+        <v>45399</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K118" t="s">
+        <v>176</v>
+      </c>
+      <c r="L118" t="s">
+        <v>12</v>
+      </c>
+      <c r="M118" s="4">
+        <v>30</v>
+      </c>
+      <c r="N118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I119" s="1">
+        <v>45399</v>
+      </c>
+      <c r="J119" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K119" t="s">
+        <v>34</v>
+      </c>
+      <c r="L119" t="s">
+        <v>18</v>
+      </c>
+      <c r="M119" s="4">
+        <v>35</v>
+      </c>
+      <c r="N119" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I120" s="1">
+        <v>45400</v>
+      </c>
+      <c r="J120" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K120" t="s">
+        <v>119</v>
+      </c>
+      <c r="L120" t="s">
+        <v>162</v>
+      </c>
+      <c r="M120" s="4">
+        <v>65</v>
+      </c>
+      <c r="N120" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I121" s="1">
+        <v>45400</v>
+      </c>
+      <c r="J121" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K121" t="s">
+        <v>137</v>
+      </c>
+      <c r="L121" t="s">
+        <v>162</v>
+      </c>
+      <c r="M121" s="4">
+        <v>65</v>
+      </c>
+      <c r="N121" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I122" s="1">
+        <v>45400</v>
+      </c>
+      <c r="J122" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K122" t="s">
+        <v>11</v>
+      </c>
+      <c r="L122" t="s">
+        <v>12</v>
+      </c>
+      <c r="M122" s="4">
+        <v>30</v>
+      </c>
+      <c r="N122" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I123" s="1">
+        <v>45400</v>
+      </c>
+      <c r="J123" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K123" t="s">
+        <v>164</v>
+      </c>
+      <c r="L123" t="s">
+        <v>162</v>
+      </c>
+      <c r="M123" s="4">
+        <v>65</v>
+      </c>
+      <c r="N123" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I124" s="1">
+        <v>45400</v>
+      </c>
+      <c r="J124" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K124" t="s">
+        <v>29</v>
+      </c>
+      <c r="L124" t="s">
+        <v>180</v>
+      </c>
+      <c r="M124" s="4">
+        <v>60</v>
+      </c>
+      <c r="N124" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I125" s="1">
+        <v>45400</v>
+      </c>
+      <c r="J125" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K125" t="s">
+        <v>35</v>
+      </c>
+      <c r="L125" t="s">
+        <v>181</v>
+      </c>
+      <c r="M125" s="4">
+        <v>70</v>
+      </c>
+      <c r="N125" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I126" s="1">
+        <v>45400</v>
+      </c>
+      <c r="J126" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K126" t="s">
+        <v>177</v>
+      </c>
+      <c r="L126" t="s">
+        <v>162</v>
+      </c>
+      <c r="M126" s="4">
+        <v>65</v>
+      </c>
+      <c r="N126" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I127" s="1">
+        <v>45400</v>
+      </c>
+      <c r="J127" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K127" t="s">
+        <v>178</v>
+      </c>
+      <c r="L127" t="s">
+        <v>12</v>
+      </c>
+      <c r="M127" s="4">
+        <v>30</v>
+      </c>
+      <c r="N127" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I128" s="1">
+        <v>45400</v>
+      </c>
+      <c r="J128" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="K128" t="s">
+        <v>179</v>
+      </c>
+      <c r="L128" t="s">
+        <v>142</v>
+      </c>
+      <c r="M128" s="4">
+        <v>100</v>
+      </c>
+      <c r="N128" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I129" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J129" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K129" t="s">
+        <v>111</v>
+      </c>
+      <c r="L129" t="s">
+        <v>24</v>
+      </c>
+      <c r="M129" s="4">
+        <v>70</v>
+      </c>
+      <c r="N129" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I130" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J130" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K130" t="s">
+        <v>52</v>
+      </c>
+      <c r="L130" t="s">
+        <v>114</v>
+      </c>
+      <c r="M130" s="4">
+        <v>85</v>
+      </c>
+      <c r="N130" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I131" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J131" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K131" t="s">
+        <v>182</v>
+      </c>
+      <c r="L131" t="s">
+        <v>12</v>
+      </c>
+      <c r="M131" s="4">
+        <v>30</v>
+      </c>
+      <c r="N131" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I132" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J132" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="K132" t="s">
+        <v>119</v>
+      </c>
+      <c r="L132" t="s">
+        <v>18</v>
+      </c>
+      <c r="M132" s="4">
+        <v>35</v>
+      </c>
+      <c r="N132" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I133" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J133" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K133" t="s">
+        <v>103</v>
+      </c>
+      <c r="L133" t="s">
+        <v>12</v>
+      </c>
+      <c r="M133" s="4">
+        <v>30</v>
+      </c>
+      <c r="N133" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I134" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J134" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K134" t="s">
+        <v>183</v>
+      </c>
+      <c r="L134" t="s">
+        <v>115</v>
+      </c>
+      <c r="M134" s="4">
+        <v>70</v>
+      </c>
+      <c r="N134" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I135" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J135" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K135" t="s">
+        <v>100</v>
+      </c>
+      <c r="L135" t="s">
+        <v>162</v>
+      </c>
+      <c r="M135" s="4">
+        <v>65</v>
+      </c>
+      <c r="N135" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I136" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J136" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K136" t="s">
+        <v>7</v>
+      </c>
+      <c r="L136" t="s">
+        <v>156</v>
+      </c>
+      <c r="M136" s="4">
+        <v>50</v>
+      </c>
+      <c r="N136" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I137" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J137" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K137" t="s">
+        <v>155</v>
+      </c>
+      <c r="L137" t="s">
+        <v>12</v>
+      </c>
+      <c r="M137" s="4">
+        <v>30</v>
+      </c>
+      <c r="N137" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I138" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J138" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K138" t="s">
+        <v>184</v>
+      </c>
+      <c r="L138" t="s">
+        <v>162</v>
+      </c>
+      <c r="M138" s="4">
+        <v>65</v>
+      </c>
+      <c r="N138" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I139" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J139" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K139" t="s">
+        <v>184</v>
+      </c>
+      <c r="L139" t="s">
+        <v>180</v>
+      </c>
+      <c r="M139" s="4">
+        <v>80</v>
+      </c>
+      <c r="N139" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I140" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J140" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K140" t="s">
+        <v>185</v>
+      </c>
+      <c r="L140" t="s">
+        <v>181</v>
+      </c>
+      <c r="M140" s="4">
+        <v>50</v>
+      </c>
+      <c r="N140" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I141" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J141" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K141" t="s">
+        <v>105</v>
+      </c>
+      <c r="L141" t="s">
+        <v>162</v>
+      </c>
+      <c r="M141" s="4">
+        <v>65</v>
+      </c>
+      <c r="N141" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I142" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J142" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K142" t="s">
+        <v>186</v>
+      </c>
+      <c r="L142" t="s">
+        <v>12</v>
+      </c>
+      <c r="M142" s="4">
+        <v>30</v>
+      </c>
+      <c r="N142" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I143" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J143" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="K143" t="s">
+        <v>25</v>
+      </c>
+      <c r="L143" t="s">
+        <v>142</v>
+      </c>
+      <c r="M143" s="4">
+        <v>100</v>
+      </c>
+      <c r="N143" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I144" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J144" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K144" t="s">
+        <v>124</v>
+      </c>
+      <c r="L144" t="s">
+        <v>24</v>
+      </c>
+      <c r="M144" s="4">
+        <v>30</v>
+      </c>
+      <c r="N144" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I145" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J145" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K145" t="s">
+        <v>187</v>
+      </c>
+      <c r="L145" t="s">
+        <v>114</v>
+      </c>
+      <c r="M145" s="4">
+        <v>80</v>
+      </c>
+      <c r="N145" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I146" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J146" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="K146" t="s">
+        <v>124</v>
+      </c>
+      <c r="L146" t="s">
+        <v>12</v>
+      </c>
+      <c r="M146" s="4">
+        <v>30</v>
+      </c>
+      <c r="N146" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I147" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J147" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K147" t="s">
+        <v>188</v>
+      </c>
+      <c r="L147" t="s">
+        <v>18</v>
+      </c>
+      <c r="M147" s="4">
+        <v>35</v>
+      </c>
+      <c r="N147" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I148" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J148" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K148" t="s">
+        <v>147</v>
+      </c>
+      <c r="L148" t="s">
+        <v>12</v>
+      </c>
+      <c r="M148" s="4">
+        <v>30</v>
+      </c>
+      <c r="N148" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I149" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J149" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="K149" t="s">
+        <v>94</v>
+      </c>
+      <c r="L149" t="s">
+        <v>115</v>
+      </c>
+      <c r="M149" s="4">
+        <v>50</v>
+      </c>
+      <c r="N149" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I150" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J150" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K150" t="s">
+        <v>94</v>
+      </c>
+      <c r="L150" t="s">
+        <v>162</v>
+      </c>
+      <c r="M150" s="4">
+        <v>65</v>
+      </c>
+      <c r="N150" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I151" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J151" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K151" t="s">
+        <v>186</v>
+      </c>
+      <c r="L151" t="s">
+        <v>156</v>
+      </c>
+      <c r="M151" s="4">
+        <v>90</v>
+      </c>
+      <c r="N151" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I152" s="1">
+        <v>45402</v>
+      </c>
+      <c r="J152" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K152" t="s">
+        <v>140</v>
+      </c>
+      <c r="L152" t="s">
+        <v>12</v>
+      </c>
+      <c r="M152" s="4">
+        <v>30</v>
+      </c>
+      <c r="N152" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I153" s="1">
+        <v>45403</v>
+      </c>
+      <c r="J153" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K153" t="s">
+        <v>184</v>
+      </c>
+      <c r="L153" t="s">
+        <v>18</v>
+      </c>
+      <c r="M153" s="4">
+        <v>35</v>
+      </c>
+      <c r="N153" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I154" s="1">
+        <v>45403</v>
+      </c>
+      <c r="J154" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K154" t="s">
+        <v>55</v>
+      </c>
+      <c r="L154" t="s">
+        <v>12</v>
+      </c>
+      <c r="M154" s="4">
+        <v>30</v>
+      </c>
+      <c r="N154" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I155" s="1">
+        <v>45403</v>
+      </c>
+      <c r="J155" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K155" t="s">
+        <v>105</v>
+      </c>
+      <c r="L155" t="s">
+        <v>18</v>
+      </c>
+      <c r="M155" s="4">
+        <v>35</v>
+      </c>
+      <c r="N155" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I156" s="1">
+        <v>45403</v>
+      </c>
+      <c r="J156" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K156" t="s">
+        <v>25</v>
+      </c>
+      <c r="L156" t="s">
+        <v>18</v>
+      </c>
+      <c r="M156" s="4">
+        <v>35</v>
+      </c>
+      <c r="N156" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="157" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I157" s="1">
+        <v>45403</v>
+      </c>
+      <c r="J157" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K157" t="s">
+        <v>124</v>
+      </c>
+      <c r="L157" t="s">
+        <v>22</v>
+      </c>
+      <c r="M157" s="4">
+        <v>65</v>
+      </c>
+      <c r="N157" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I158" s="1">
+        <v>45403</v>
+      </c>
+      <c r="J158" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="K158" t="s">
+        <v>189</v>
+      </c>
+      <c r="L158" t="s">
+        <v>18</v>
+      </c>
+      <c r="M158" s="4">
+        <v>35</v>
+      </c>
+      <c r="N158" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I159" s="1">
+        <v>45403</v>
+      </c>
+      <c r="J159" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K159" t="s">
+        <v>190</v>
+      </c>
+      <c r="L159" t="s">
+        <v>12</v>
+      </c>
+      <c r="M159" s="4">
+        <v>30</v>
+      </c>
+      <c r="N159" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I160" s="1">
+        <v>45403</v>
+      </c>
+      <c r="J160" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="K160" t="s">
+        <v>159</v>
+      </c>
+      <c r="L160" t="s">
+        <v>12</v>
+      </c>
+      <c r="M160" s="4">
+        <v>30</v>
+      </c>
+      <c r="N160" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I161" s="1">
+        <v>45403</v>
+      </c>
+      <c r="J161" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K161" t="s">
+        <v>94</v>
+      </c>
+      <c r="L161" t="s">
+        <v>12</v>
+      </c>
+      <c r="M161" s="4">
+        <v>30</v>
+      </c>
+      <c r="N161" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="162" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I162" s="1">
+        <v>45405</v>
+      </c>
+      <c r="J162" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K162" t="s">
+        <v>21</v>
+      </c>
+      <c r="L162" t="s">
+        <v>22</v>
+      </c>
+      <c r="M162" s="4">
+        <v>65</v>
+      </c>
+      <c r="N162" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I163" s="1">
+        <v>45405</v>
+      </c>
+      <c r="J163" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K163" t="s">
+        <v>85</v>
+      </c>
+      <c r="L163" t="s">
+        <v>64</v>
+      </c>
+      <c r="M163" s="4">
+        <v>100</v>
+      </c>
+      <c r="N163" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I164" s="1">
+        <v>45405</v>
+      </c>
+      <c r="J164" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="K164" t="s">
+        <v>191</v>
+      </c>
+      <c r="L164" t="s">
+        <v>142</v>
+      </c>
+      <c r="M164" s="4">
+        <v>100</v>
+      </c>
+      <c r="N164" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="165" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I165" s="1">
+        <v>45405</v>
+      </c>
+      <c r="J165" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="K165" t="s">
+        <v>192</v>
+      </c>
+      <c r="L165" t="s">
+        <v>18</v>
+      </c>
+      <c r="M165" s="4">
+        <v>35</v>
+      </c>
+      <c r="N165" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I166" s="1">
+        <v>45405</v>
+      </c>
+      <c r="J166" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K166" t="s">
+        <v>193</v>
+      </c>
+      <c r="L166" t="s">
+        <v>130</v>
+      </c>
+      <c r="M166" s="4">
+        <v>80</v>
+      </c>
+      <c r="N166" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="167" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I167" s="1">
+        <v>45405</v>
+      </c>
+      <c r="J167" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K167" t="s">
+        <v>121</v>
+      </c>
+      <c r="L167" t="s">
+        <v>64</v>
+      </c>
+      <c r="M167" s="4">
+        <v>100</v>
+      </c>
+      <c r="N167" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="168" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I168" s="1">
+        <v>45405</v>
+      </c>
+      <c r="J168" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K168" t="s">
+        <v>194</v>
+      </c>
+      <c r="L168" t="s">
+        <v>130</v>
+      </c>
+      <c r="M168" s="4">
+        <v>80</v>
+      </c>
+      <c r="N168" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="169" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I169" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J169" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K169" t="s">
+        <v>31</v>
+      </c>
+      <c r="L169" t="s">
+        <v>18</v>
+      </c>
+      <c r="M169" s="4">
+        <v>35</v>
+      </c>
+      <c r="N169" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="170" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I170" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J170" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K170" t="s">
+        <v>140</v>
+      </c>
+      <c r="L170" t="s">
+        <v>18</v>
+      </c>
+      <c r="M170" s="4">
+        <v>35</v>
+      </c>
+      <c r="N170" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="171" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I171" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J171" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K171" t="s">
+        <v>195</v>
+      </c>
+      <c r="L171" t="s">
+        <v>162</v>
+      </c>
+      <c r="M171" s="4">
+        <v>65</v>
+      </c>
+      <c r="N171" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I172" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J172" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K172" t="s">
+        <v>182</v>
+      </c>
+      <c r="L172" t="s">
+        <v>162</v>
+      </c>
+      <c r="M172" s="4">
+        <v>65</v>
+      </c>
+      <c r="N172" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I173" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J173" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K173" t="s">
+        <v>196</v>
+      </c>
+      <c r="L173" t="s">
+        <v>18</v>
+      </c>
+      <c r="M173" s="4">
+        <v>35</v>
+      </c>
+      <c r="N173" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="174" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I174" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J174" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="K174" t="s">
+        <v>197</v>
+      </c>
+      <c r="L174" t="s">
+        <v>162</v>
+      </c>
+      <c r="M174" s="4">
+        <v>65</v>
+      </c>
+      <c r="N174" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="175" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I175" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J175" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K175" t="s">
+        <v>11</v>
+      </c>
+      <c r="L175" t="s">
+        <v>22</v>
+      </c>
+      <c r="M175" s="4">
+        <v>65</v>
+      </c>
+      <c r="N175" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I176" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J176" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K176" t="s">
+        <v>198</v>
+      </c>
+      <c r="L176" t="s">
+        <v>118</v>
+      </c>
+      <c r="M176" s="4">
+        <v>135</v>
+      </c>
+      <c r="N176" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="177" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I177" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J177" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K177" t="s">
+        <v>140</v>
+      </c>
+      <c r="L177" t="s">
+        <v>12</v>
+      </c>
+      <c r="M177" s="4">
+        <v>30</v>
+      </c>
+      <c r="N177" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="178" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I178" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J178" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K178" t="s">
+        <v>109</v>
+      </c>
+      <c r="L178" t="s">
+        <v>129</v>
+      </c>
+      <c r="M178" s="4">
+        <v>50</v>
+      </c>
+      <c r="N178" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="179" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I179" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J179" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K179" t="s">
+        <v>137</v>
+      </c>
+      <c r="L179" t="s">
+        <v>199</v>
+      </c>
+      <c r="M179" s="4">
+        <v>155</v>
+      </c>
+      <c r="N179" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I180" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J180" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K180" t="s">
+        <v>175</v>
+      </c>
+      <c r="L180" t="s">
+        <v>64</v>
+      </c>
+      <c r="M180" s="4">
+        <v>100</v>
+      </c>
+      <c r="N180" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I181" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J181" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="K181" t="s">
+        <v>132</v>
+      </c>
+      <c r="L181" t="s">
+        <v>200</v>
+      </c>
+      <c r="M181" s="4">
+        <v>180</v>
+      </c>
+      <c r="N181" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="182" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I182" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J182" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="K182" t="s">
+        <v>84</v>
+      </c>
+      <c r="L182" t="s">
+        <v>79</v>
+      </c>
+      <c r="M182" s="4">
+        <v>25</v>
+      </c>
+      <c r="N182" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="183" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I183" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J183" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K183" t="s">
+        <v>175</v>
+      </c>
+      <c r="L183" t="s">
+        <v>12</v>
+      </c>
+      <c r="M183" s="4">
+        <v>30</v>
+      </c>
+      <c r="N183" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I184" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J184" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K184" t="s">
+        <v>175</v>
+      </c>
+      <c r="L184" t="s">
+        <v>18</v>
+      </c>
+      <c r="M184" s="4">
+        <v>35</v>
+      </c>
+      <c r="N184" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I185" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J185" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K185" t="s">
+        <v>61</v>
+      </c>
+      <c r="L185" t="s">
+        <v>18</v>
+      </c>
+      <c r="M185" s="4">
+        <v>35</v>
+      </c>
+      <c r="N185" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="186" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I186" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J186" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K186" t="s">
+        <v>36</v>
+      </c>
+      <c r="L186" t="s">
+        <v>22</v>
+      </c>
+      <c r="M186" s="4">
+        <v>65</v>
+      </c>
+      <c r="N186" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="187" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I187" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J187" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K187" t="s">
+        <v>89</v>
+      </c>
+      <c r="L187" t="s">
+        <v>114</v>
+      </c>
+      <c r="M187" s="4">
+        <v>85</v>
+      </c>
+      <c r="N187" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="188" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I188" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J188" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K188" t="s">
+        <v>201</v>
+      </c>
+      <c r="L188" t="s">
+        <v>18</v>
+      </c>
+      <c r="M188" s="4">
+        <v>35</v>
+      </c>
+      <c r="N188" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="189" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I189" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J189" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K189" t="s">
+        <v>202</v>
+      </c>
+      <c r="L189" t="s">
+        <v>22</v>
+      </c>
+      <c r="M189" s="4">
+        <v>65</v>
+      </c>
+      <c r="N189" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I190" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J190" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K190" t="s">
+        <v>62</v>
+      </c>
+      <c r="L190" t="s">
+        <v>22</v>
+      </c>
+      <c r="M190" s="4">
+        <v>65</v>
+      </c>
+      <c r="N190" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="191" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I191" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J191" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="K191" t="s">
+        <v>203</v>
+      </c>
+      <c r="L191" t="s">
+        <v>130</v>
+      </c>
+      <c r="M191" s="4">
+        <v>75</v>
+      </c>
+      <c r="N191" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="192" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I192" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J192" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K192" t="s">
+        <v>186</v>
+      </c>
+      <c r="L192" t="s">
+        <v>22</v>
+      </c>
+      <c r="M192" s="4">
+        <v>65</v>
+      </c>
+      <c r="N192" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="193" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I193" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J193" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K193" t="s">
+        <v>204</v>
+      </c>
+      <c r="L193" t="s">
+        <v>22</v>
+      </c>
+      <c r="M193" s="4">
+        <v>65</v>
+      </c>
+      <c r="N193" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="194" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I194" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J194" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K194" t="s">
+        <v>205</v>
+      </c>
+      <c r="L194" t="s">
+        <v>22</v>
+      </c>
+      <c r="M194" s="4">
+        <v>65</v>
+      </c>
+      <c r="N194" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="195" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I195" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J195" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="K195" t="s">
+        <v>206</v>
+      </c>
+      <c r="L195" t="s">
+        <v>208</v>
+      </c>
+      <c r="M195" s="4">
+        <v>75</v>
+      </c>
+      <c r="N195" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="196" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I196" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J196" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K196" t="s">
+        <v>178</v>
+      </c>
+      <c r="L196" t="s">
+        <v>12</v>
+      </c>
+      <c r="M196" s="4">
+        <v>30</v>
+      </c>
+      <c r="N196" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I197" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J197" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K197" t="s">
+        <v>207</v>
+      </c>
+      <c r="L197" t="s">
+        <v>12</v>
+      </c>
+      <c r="M197" s="4">
+        <v>30</v>
+      </c>
+      <c r="N197" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I198" s="1">
+        <v>45409</v>
+      </c>
+      <c r="J198" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K198" t="s">
+        <v>55</v>
+      </c>
+      <c r="L198" t="s">
+        <v>22</v>
+      </c>
+      <c r="M198" s="4">
+        <v>65</v>
+      </c>
+      <c r="N198" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="199" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I199" s="1">
+        <v>45409</v>
+      </c>
+      <c r="J199" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K199" t="s">
+        <v>93</v>
+      </c>
+      <c r="L199" t="s">
+        <v>118</v>
+      </c>
+      <c r="M199" s="4">
+        <v>135</v>
+      </c>
+      <c r="N199" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="200" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I200" s="1">
+        <v>45409</v>
+      </c>
+      <c r="J200" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="K200" t="s">
+        <v>93</v>
+      </c>
+      <c r="L200" t="s">
+        <v>18</v>
+      </c>
+      <c r="M200" s="4">
+        <v>35</v>
+      </c>
+      <c r="N200" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="201" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I201" s="1">
+        <v>45409</v>
+      </c>
+      <c r="J201" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K201" t="s">
+        <v>57</v>
+      </c>
+      <c r="L201" t="s">
+        <v>162</v>
+      </c>
+      <c r="M201" s="4">
+        <v>65</v>
+      </c>
+      <c r="N201" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="202" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I202" s="1">
+        <v>45409</v>
+      </c>
+      <c r="J202" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K202" t="s">
+        <v>122</v>
+      </c>
+      <c r="L202" t="s">
+        <v>130</v>
+      </c>
+      <c r="M202" s="4">
+        <v>75</v>
+      </c>
+      <c r="N202" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I203" s="1">
+        <v>45409</v>
+      </c>
+      <c r="J203" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K203" t="s">
+        <v>59</v>
+      </c>
+      <c r="L203" t="s">
+        <v>162</v>
+      </c>
+      <c r="M203" s="4">
+        <v>65</v>
+      </c>
+      <c r="N203" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="204" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I204" s="1">
+        <v>45409</v>
+      </c>
+      <c r="J204" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K204" t="s">
+        <v>209</v>
+      </c>
+      <c r="L204" t="s">
+        <v>162</v>
+      </c>
+      <c r="M204" s="4">
+        <v>65</v>
+      </c>
+      <c r="N204" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="205" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I205" s="1">
+        <v>45409</v>
+      </c>
+      <c r="J205" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K205" t="s">
+        <v>123</v>
+      </c>
+      <c r="L205" t="s">
+        <v>12</v>
+      </c>
+      <c r="M205" s="4">
+        <v>30</v>
+      </c>
+      <c r="N205" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="206" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I206" s="1">
+        <v>45409</v>
+      </c>
+      <c r="J206" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K206" t="s">
+        <v>153</v>
+      </c>
+      <c r="L206" t="s">
+        <v>165</v>
+      </c>
+      <c r="M206" s="4">
+        <v>135</v>
+      </c>
+      <c r="N206" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="207" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I207" s="1">
+        <v>45409</v>
+      </c>
+      <c r="J207" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="K207" t="s">
+        <v>25</v>
+      </c>
+      <c r="L207" t="s">
+        <v>162</v>
+      </c>
+      <c r="M207" s="4">
+        <v>65</v>
+      </c>
+      <c r="N207" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="208" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I208" s="1">
+        <v>45409</v>
+      </c>
+      <c r="J208" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K208" t="s">
+        <v>55</v>
+      </c>
+      <c r="L208" t="s">
+        <v>162</v>
+      </c>
+      <c r="M208" s="4">
+        <v>65</v>
+      </c>
+      <c r="N208" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="209" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I209" s="1">
+        <v>45409</v>
+      </c>
+      <c r="J209" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="K209" t="s">
+        <v>210</v>
+      </c>
+      <c r="L209" t="s">
+        <v>162</v>
+      </c>
+      <c r="M209" s="4">
+        <v>65</v>
+      </c>
+      <c r="N209" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="210" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I210" s="1">
+        <v>45410</v>
+      </c>
+      <c r="J210" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="K210" t="s">
+        <v>62</v>
+      </c>
+      <c r="L210" t="s">
+        <v>18</v>
+      </c>
+      <c r="M210" s="4">
+        <v>35</v>
+      </c>
+      <c r="N210" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="211" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I211" s="1">
+        <v>45410</v>
+      </c>
+      <c r="J211" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="K211" t="s">
+        <v>119</v>
+      </c>
+      <c r="L211" t="s">
+        <v>162</v>
+      </c>
+      <c r="M211" s="4">
+        <v>65</v>
+      </c>
+      <c r="N211" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="212" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I212" s="1">
+        <v>45410</v>
+      </c>
+      <c r="J212" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K212" t="s">
+        <v>28</v>
+      </c>
+      <c r="L212" t="s">
+        <v>211</v>
+      </c>
+      <c r="M212" s="4">
+        <v>110</v>
+      </c>
+      <c r="N212" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I213" s="1">
+        <v>45412</v>
+      </c>
+      <c r="J213" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K213" t="s">
+        <v>166</v>
+      </c>
+      <c r="L213" t="s">
+        <v>12</v>
+      </c>
+      <c r="M213" s="4">
+        <v>30</v>
+      </c>
+      <c r="N213" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="214" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I214" s="1">
+        <v>45412</v>
+      </c>
+      <c r="J214" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K214" t="s">
+        <v>100</v>
+      </c>
+      <c r="L214" t="s">
+        <v>213</v>
+      </c>
+      <c r="M214" s="4">
+        <v>110</v>
+      </c>
+      <c r="N214" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="215" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I215" s="1">
+        <v>45412</v>
+      </c>
+      <c r="J215" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="K215" t="s">
+        <v>212</v>
+      </c>
+      <c r="L215" t="s">
+        <v>18</v>
+      </c>
+      <c r="M215" s="4">
+        <v>35</v>
+      </c>
+      <c r="N215" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I216" s="1">
+        <v>45412</v>
+      </c>
+      <c r="J216" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K216" t="s">
+        <v>109</v>
+      </c>
+      <c r="L216" t="s">
+        <v>162</v>
+      </c>
+      <c r="M216" s="4">
+        <v>65</v>
+      </c>
+      <c r="N216" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I6:N6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/willyan.xlsx
+++ b/willyan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turma Manha\Desktop\Willyan R. dos Santos\Dashboard\Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filhos\Documents\willyan\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB55935B-92E7-44EA-B898-0913304101A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANILHA GERAL" sheetId="1" r:id="rId1"/>
@@ -22,15 +23,17 @@
     <sheet name="DASHBOARD-PRÁTICA (4)" sheetId="19" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'TABELAS-GERAIS'!$H$3:$H$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'TABELAS-GERAIS'!$I$3:$I$6</definedName>
     <definedName name="SegmentaçãodeDados_MÊS">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_MÊS1">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_MÊS2">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="29" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -46,12 +49,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="343">
   <si>
     <t>TABELA GERAL</t>
   </si>
@@ -1085,7 +1094,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1173,55 +1182,7 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="47">
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1404,8 +1365,8 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="willyan" pivot="0" table="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="62"/>
+    <tableStyle name="willyan" pivot="0" table="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="46"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1508,7 +1469,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1573,6 +1533,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -1938,6 +1939,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -1953,6 +1995,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
@@ -1968,6 +2051,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2292,7 +2416,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2418,7 +2541,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2479,6 +2601,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2758,7 +2921,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2819,6 +2981,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3094,7 +3297,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3159,6 +3361,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -3204,6 +3447,62 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3554,6 +3853,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -3569,6 +3909,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
@@ -3584,6 +3965,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3908,7 +4330,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4087,7 +4508,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4375,7 +4795,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5092,9 +5511,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5160,7 +5577,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5261,7 +5677,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5322,6 +5737,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5664,7 +6120,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5955,7 +6410,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6466,9 +6920,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6540,7 +6992,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6948,7 +7399,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7210,7 +7660,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7568,7 +8017,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -7603,9 +8051,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -7631,7 +8077,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -7666,9 +8111,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -7694,7 +8137,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -7729,9 +8171,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -7824,7 +8264,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7957,7 +8396,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8090,7 +8528,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8521,7 +8958,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8597,6 +9033,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -8631,41 +9108,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TABELAS-GERAIS'!$H$3:$H$7</c:f>
+              <c:f>'TABELAS-GERAIS'!$H$3:$H$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JANEIRO</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>FEVEREIRO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MARÇO</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ABRIL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TABELAS-GERAIS'!$I$3:$I$7</c:f>
+              <c:f>'TABELAS-GERAIS'!$I$3:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8869,7 +9328,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9142,7 +9600,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9165,18 +9622,12 @@
             <c:strRef>
               <c:f>'TABELAS-GERAIS'!$H$3:$H$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>JANEIRO</c:v>
+                  <c:v>FEVEREIRO</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FEVEREIRO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MARÇO</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ABRIL</c:v>
+                  <c:v>Total Geral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9188,16 +9639,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>83</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9364,6 +9809,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5010-4144-8D19-BA1EA4DC1CEF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -9377,6 +9827,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5010-4144-8D19-BA1EA4DC1CEF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -9390,6 +9845,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5010-4144-8D19-BA1EA4DC1CEF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -9415,13 +9875,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>214</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9453,7 +9913,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9528,7 +9987,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9586,6 +10044,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0A62-413D-B39A-81880279F8D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -9599,6 +10062,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0A62-413D-B39A-81880279F8D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -9612,6 +10080,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0A62-413D-B39A-81880279F8D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -9625,6 +10098,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0A62-413D-B39A-81880279F8D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -9638,6 +10116,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0A62-413D-B39A-81880279F8D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -9651,6 +10134,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0A62-413D-B39A-81880279F8D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -9666,6 +10154,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-0A62-413D-B39A-81880279F8D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -9681,6 +10174,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-0A62-413D-B39A-81880279F8D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -9696,6 +10194,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-0A62-413D-B39A-81880279F8D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -9711,6 +10214,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-0A62-413D-B39A-81880279F8D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -9726,6 +10234,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-0A62-413D-B39A-81880279F8D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -9741,6 +10254,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-0A62-413D-B39A-81880279F8D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -9757,6 +10275,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-0A62-413D-B39A-81880279F8D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
@@ -9881,7 +10404,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10057,6 +10579,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -10203,13 +10766,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>214</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10376,7 +10939,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10441,6 +11003,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -11150,7 +11753,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11211,6 +11813,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -11423,7 +12066,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11549,7 +12191,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11610,6 +12251,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -11884,7 +12566,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11949,6 +12630,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -12309,7 +13031,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12370,6 +13091,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -31276,7 +32038,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -31306,7 +32074,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -31336,7 +32110,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -31366,7 +32146,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -31396,7 +32182,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -31424,11 +32216,17 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>117231</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="12" name="MÊS 3"/>
+            <xdr:cNvPr id="12" name="MÊS 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -31442,7 +32240,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -31498,7 +32296,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -31533,7 +32337,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -31563,7 +32373,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -31593,7 +32409,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -31623,7 +32445,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -31655,7 +32483,13 @@
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="MÊS 1"/>
+            <xdr:cNvPr id="3" name="MÊS 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -31730,7 +32564,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -31760,7 +32600,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -31790,7 +32636,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -31820,7 +32672,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -31848,11 +32706,17 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="MÊS"/>
+            <xdr:cNvPr id="6" name="MÊS">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -31866,7 +32730,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -31927,7 +32791,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Retângulo 1"/>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -31999,7 +32869,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Retângulo Arredondado 2"/>
+        <xdr:cNvPr id="3" name="Retângulo Arredondado 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32068,7 +32944,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo Arredondado 3"/>
+        <xdr:cNvPr id="4" name="Retângulo Arredondado 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32137,7 +33019,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Retângulo Arredondado 4"/>
+        <xdr:cNvPr id="5" name="Retângulo Arredondado 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32206,7 +33094,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Retângulo Arredondado 5"/>
+        <xdr:cNvPr id="6" name="Retângulo Arredondado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32275,20 +33169,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="Agrupar 17"/>
+        <xdr:cNvPr id="18" name="Agrupar 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3673248" y="1485899"/>
-          <a:ext cx="14098021" cy="3766459"/>
+          <a:off x="3703864" y="1422399"/>
+          <a:ext cx="14215382" cy="3585030"/>
           <a:chOff x="3673248" y="1485899"/>
           <a:chExt cx="14098021" cy="3766459"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Retângulo Arredondado 8"/>
+          <xdr:cNvPr id="9" name="Retângulo Arredondado 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -32337,7 +33243,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Retângulo Arredondado 14"/>
+          <xdr:cNvPr id="15" name="Retângulo Arredondado 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -32400,20 +33312,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="Agrupar 18"/>
+        <xdr:cNvPr id="19" name="Agrupar 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3662363" y="5393870"/>
-          <a:ext cx="7014142" cy="3848102"/>
+          <a:off x="3692979" y="5139870"/>
+          <a:ext cx="7070271" cy="3666673"/>
           <a:chOff x="3662363" y="5393870"/>
           <a:chExt cx="7014142" cy="3848102"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Retângulo Arredondado 10"/>
+          <xdr:cNvPr id="11" name="Retângulo Arredondado 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -32462,7 +33386,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Retângulo Arredondado 15"/>
+          <xdr:cNvPr id="16" name="Retângulo Arredondado 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -32525,20 +33455,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="Agrupar 19"/>
+        <xdr:cNvPr id="20" name="Agrupar 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10853397" y="5393872"/>
-          <a:ext cx="6960056" cy="3864429"/>
+          <a:off x="10940142" y="5139872"/>
+          <a:ext cx="7021288" cy="3683000"/>
           <a:chOff x="10853397" y="5393872"/>
           <a:chExt cx="6960056" cy="3864429"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Retângulo Arredondado 13"/>
+          <xdr:cNvPr id="14" name="Retângulo Arredondado 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -32587,7 +33529,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Retângulo Arredondado 16"/>
+          <xdr:cNvPr id="17" name="Retângulo Arredondado 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -32650,7 +33598,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4097" name="AutoShape 1" descr="&lt;svg xmlns=&quot;http://www.w3.org/2000/svg&quot; height=&quot;24px&quot; viewBox=&quot;0 -960 960 960&quot; width=&quot;24px&quot; fill=&quot;#e8eaed&quot;&gt;&lt;path d=&quot;M640-520q17 0 28.5-11.5T680-560q0-17-11.5-28.5T640-600q-17 0-28.5 11.5T600-560q0 17 11.5 28.5T640-520Zm-320-80h200v-80H320v80ZM180-120q-34-114-67-227.5T80-580q0-92 64-156t156-64h200q29-38 70.5-59t89.5-21q25 0 42.5 17.5T720-820q0 6-1.5 12t-3.5 11q-4 11-7.5 22.5T702-751l91 91h87v279l-113 37-67 224H480v-80h-80v80H180Zm60-80h80v-80h240v80h80l62-206 98-33v-141h-40L620-720q0-20 2.5-38.5T630-796q-29 8-51 27.5T547-720H300q-58 0-99 41t-41 99q0 98 27 191.5T240-200Zm240-298Z&quot;/&gt;&lt;/svg&gt;"/>
+        <xdr:cNvPr id="4097" name="AutoShape 1" descr="&lt;svg xmlns=&quot;http://www.w3.org/2000/svg&quot; height=&quot;24px&quot; viewBox=&quot;0 -960 960 960&quot; width=&quot;24px&quot; fill=&quot;#e8eaed&quot;&gt;&lt;path d=&quot;M640-520q17 0 28.5-11.5T680-560q0-17-11.5-28.5T640-600q-17 0-28.5 11.5T600-560q0 17 11.5 28.5T640-520Zm-320-80h200v-80H320v80ZM180-120q-34-114-67-227.5T80-580q0-92 64-156t156-64h200q29-38 70.5-59t89.5-21q25 0 42.5 17.5T720-820q0 6-1.5 12t-3.5 11q-4 11-7.5 22.5T702-751l91 91h87v279l-113 37-67 224H480v-80h-80v80H180Zm60-80h80v-80h240v80h80l62-206 98-33v-141h-40L620-720q0-20 2.5-38.5T630-796q-29 8-51 27.5T547-720H300q-58 0-99 41t-41 99q0 98 27 191.5T240-200Zm240-298Z&quot;/&gt;&lt;/svg&gt;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -32692,7 +33646,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagem 24"/>
+        <xdr:cNvPr id="25" name="Imagem 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -32736,7 +33696,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Imagem 25"/>
+        <xdr:cNvPr id="26" name="Imagem 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -32780,7 +33746,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Imagem 26"/>
+        <xdr:cNvPr id="27" name="Imagem 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -32824,7 +33796,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Imagem 33"/>
+        <xdr:cNvPr id="34" name="Imagem 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -32868,7 +33846,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Imagem 34"/>
+        <xdr:cNvPr id="35" name="Imagem 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -32912,7 +33896,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Imagem 35"/>
+        <xdr:cNvPr id="36" name="Imagem 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -32956,7 +33946,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CaixaDeTexto 27"/>
+        <xdr:cNvPr id="28" name="CaixaDeTexto 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33019,7 +34015,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CaixaDeTexto 23"/>
+        <xdr:cNvPr id="24" name="CaixaDeTexto 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33088,7 +34090,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="CaixaDeTexto 28"/>
+        <xdr:cNvPr id="29" name="CaixaDeTexto 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33151,7 +34159,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="CaixaDeTexto 29"/>
+        <xdr:cNvPr id="30" name="CaixaDeTexto 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33214,7 +34228,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="CaixaDeTexto 31"/>
+        <xdr:cNvPr id="32" name="CaixaDeTexto 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33292,7 +34312,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CaixaDeTexto 32"/>
+        <xdr:cNvPr id="33" name="CaixaDeTexto 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33353,11 +34379,17 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="37" name="MÊS 2"/>
+            <xdr:cNvPr id="37" name="MÊS 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -33371,7 +34403,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -33427,7 +34459,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CaixaDeTexto 41"/>
+        <xdr:cNvPr id="42" name="CaixaDeTexto 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33514,7 +34552,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CaixaDeTexto 42"/>
+        <xdr:cNvPr id="43" name="CaixaDeTexto 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33592,7 +34636,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Conector reto 53"/>
+        <xdr:cNvPr id="54" name="Conector reto 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -33641,7 +34691,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="CONTABILIDADE!C4">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="CaixaDeTexto 59"/>
+        <xdr:cNvPr id="60" name="CaixaDeTexto 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33713,7 +34769,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Imagem 62"/>
+        <xdr:cNvPr id="63" name="Imagem 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -33757,7 +34819,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="CONTABILIDADE!F4">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="CaixaDeTexto 64"/>
+        <xdr:cNvPr id="65" name="CaixaDeTexto 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33829,7 +34897,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="CONTABILIDADE!I4">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="CaixaDeTexto 65"/>
+        <xdr:cNvPr id="66" name="CaixaDeTexto 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33901,7 +34975,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4096" name="Gráfico 4095"/>
+        <xdr:cNvPr id="4096" name="Gráfico 4095">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000000100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33931,7 +35011,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33961,7 +35047,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33993,6 +35085,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Retângulo Arredondado 11">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -34069,6 +35166,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="44" name="Retângulo Arredondado 43">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -34145,6 +35247,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="Retângulo Arredondado 44">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -34219,7 +35326,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Retângulo Arredondado 45"/>
+        <xdr:cNvPr id="46" name="Retângulo Arredondado 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34298,7 +35411,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Retângulo 1"/>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34370,7 +35489,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Retângulo Arredondado 2"/>
+        <xdr:cNvPr id="3" name="Retângulo Arredondado 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34439,7 +35564,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo Arredondado 3"/>
+        <xdr:cNvPr id="4" name="Retângulo Arredondado 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34508,7 +35639,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Retângulo Arredondado 4"/>
+        <xdr:cNvPr id="5" name="Retângulo Arredondado 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34577,7 +35714,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Retângulo Arredondado 5"/>
+        <xdr:cNvPr id="6" name="Retângulo Arredondado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34646,20 +35789,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Agrupar 6"/>
+        <xdr:cNvPr id="7" name="Agrupar 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3673248" y="1485899"/>
-          <a:ext cx="14098021" cy="3766459"/>
+          <a:off x="3744685" y="1485899"/>
+          <a:ext cx="14371865" cy="3766459"/>
           <a:chOff x="3673248" y="1485899"/>
           <a:chExt cx="14098021" cy="3766459"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Retângulo Arredondado 7"/>
+          <xdr:cNvPr id="8" name="Retângulo Arredondado 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -34708,7 +35863,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Retângulo Arredondado 8"/>
+          <xdr:cNvPr id="9" name="Retângulo Arredondado 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -34771,20 +35932,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Agrupar 9"/>
+        <xdr:cNvPr id="10" name="Agrupar 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3662363" y="5393870"/>
-          <a:ext cx="7014142" cy="3848102"/>
+          <a:off x="3733800" y="5393870"/>
+          <a:ext cx="7145111" cy="3848102"/>
           <a:chOff x="3662363" y="5393870"/>
           <a:chExt cx="7014142" cy="3848102"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Retângulo Arredondado 10"/>
+          <xdr:cNvPr id="11" name="Retângulo Arredondado 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -34833,7 +36006,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Retângulo Arredondado 11"/>
+          <xdr:cNvPr id="12" name="Retângulo Arredondado 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -34896,20 +36075,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="Agrupar 12"/>
+        <xdr:cNvPr id="13" name="Agrupar 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10853397" y="5393872"/>
-          <a:ext cx="6960056" cy="3864429"/>
+          <a:off x="11055803" y="5393872"/>
+          <a:ext cx="7102931" cy="3864429"/>
           <a:chOff x="10853397" y="5393872"/>
           <a:chExt cx="6960056" cy="3864429"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Retângulo Arredondado 13"/>
+          <xdr:cNvPr id="14" name="Retângulo Arredondado 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -34958,7 +36149,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Retângulo Arredondado 14"/>
+          <xdr:cNvPr id="15" name="Retângulo Arredondado 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -35021,7 +36218,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 1" descr="&lt;svg xmlns=&quot;http://www.w3.org/2000/svg&quot; height=&quot;24px&quot; viewBox=&quot;0 -960 960 960&quot; width=&quot;24px&quot; fill=&quot;#e8eaed&quot;&gt;&lt;path d=&quot;M640-520q17 0 28.5-11.5T680-560q0-17-11.5-28.5T640-600q-17 0-28.5 11.5T600-560q0 17 11.5 28.5T640-520Zm-320-80h200v-80H320v80ZM180-120q-34-114-67-227.5T80-580q0-92 64-156t156-64h200q29-38 70.5-59t89.5-21q25 0 42.5 17.5T720-820q0 6-1.5 12t-3.5 11q-4 11-7.5 22.5T702-751l91 91h87v279l-113 37-67 224H480v-80h-80v80H180Zm60-80h80v-80h240v80h80l62-206 98-33v-141h-40L620-720q0-20 2.5-38.5T630-796q-29 8-51 27.5T547-720H300q-58 0-99 41t-41 99q0 98 27 191.5T240-200Zm240-298Z&quot;/&gt;&lt;/svg&gt;"/>
+        <xdr:cNvPr id="16" name="AutoShape 1" descr="&lt;svg xmlns=&quot;http://www.w3.org/2000/svg&quot; height=&quot;24px&quot; viewBox=&quot;0 -960 960 960&quot; width=&quot;24px&quot; fill=&quot;#e8eaed&quot;&gt;&lt;path d=&quot;M640-520q17 0 28.5-11.5T680-560q0-17-11.5-28.5T640-600q-17 0-28.5 11.5T600-560q0 17 11.5 28.5T640-520Zm-320-80h200v-80H320v80ZM180-120q-34-114-67-227.5T80-580q0-92 64-156t156-64h200q29-38 70.5-59t89.5-21q25 0 42.5 17.5T720-820q0 6-1.5 12t-3.5 11q-4 11-7.5 22.5T702-751l91 91h87v279l-113 37-67 224H480v-80h-80v80H180Zm60-80h80v-80h240v80h80l62-206 98-33v-141h-40L620-720q0-20 2.5-38.5T630-796q-29 8-51 27.5T547-720H300q-58 0-99 41t-41 99q0 98 27 191.5T240-200Zm240-298Z&quot;/&gt;&lt;/svg&gt;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -35063,7 +36266,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CaixaDeTexto 22"/>
+        <xdr:cNvPr id="23" name="CaixaDeTexto 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -35126,7 +36335,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CaixaDeTexto 23"/>
+        <xdr:cNvPr id="24" name="CaixaDeTexto 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -35195,7 +36410,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CaixaDeTexto 24"/>
+        <xdr:cNvPr id="25" name="CaixaDeTexto 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -35273,7 +36494,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="CaixaDeTexto 29"/>
+        <xdr:cNvPr id="30" name="CaixaDeTexto 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -35360,7 +36587,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="CaixaDeTexto 30"/>
+        <xdr:cNvPr id="31" name="CaixaDeTexto 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -35438,7 +36671,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Conector reto 31"/>
+        <xdr:cNvPr id="32" name="Conector reto 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -35487,7 +36726,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Imagem 33"/>
+        <xdr:cNvPr id="34" name="Imagem 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -35531,7 +36776,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="38" name="Gráfico 37"/>
+        <xdr:cNvPr id="38" name="Gráfico 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -35565,6 +36816,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="40" name="Retângulo Arredondado 39">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -35641,6 +36897,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="Retângulo Arredondado 40">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000029000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -35717,6 +36978,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="Retângulo Arredondado 41">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -35791,7 +37057,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Retângulo Arredondado 42"/>
+        <xdr:cNvPr id="43" name="Retângulo Arredondado 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -35865,7 +37137,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="44" name="Gráfico 43"/>
+        <xdr:cNvPr id="44" name="Gráfico 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -35895,7 +37173,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="45" name="Gráfico 44"/>
+        <xdr:cNvPr id="45" name="Gráfico 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -35925,7 +37209,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="47" name="Gráfico 46"/>
+        <xdr:cNvPr id="47" name="Gráfico 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -35953,11 +37243,17 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>59532</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="48" name="MÊS 4"/>
+            <xdr:cNvPr id="48" name="MÊS 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000030000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -35971,7 +37267,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -36027,7 +37323,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Retângulo Arredondado 49"/>
+        <xdr:cNvPr id="50" name="Retângulo Arredondado 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -36096,7 +37398,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Retângulo Arredondado 50"/>
+        <xdr:cNvPr id="51" name="Retângulo Arredondado 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -36165,7 +37473,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Imagem 51"/>
+        <xdr:cNvPr id="52" name="Imagem 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -36209,7 +37523,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Imagem 52"/>
+        <xdr:cNvPr id="53" name="Imagem 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -36253,7 +37573,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Imagem 53"/>
+        <xdr:cNvPr id="54" name="Imagem 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -36297,7 +37623,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Imagem 54"/>
+        <xdr:cNvPr id="55" name="Imagem 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -36341,7 +37673,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Imagem 56"/>
+        <xdr:cNvPr id="57" name="Imagem 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -36385,7 +37723,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Imagem 57"/>
+        <xdr:cNvPr id="58" name="Imagem 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -36429,7 +37773,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Imagem 58"/>
+        <xdr:cNvPr id="59" name="Imagem 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -36473,7 +37823,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Imagem 59"/>
+        <xdr:cNvPr id="60" name="Imagem 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -36517,7 +37873,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="CaixaDeTexto 60"/>
+        <xdr:cNvPr id="61" name="CaixaDeTexto 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -36595,7 +37957,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="CaixaDeTexto 62"/>
+        <xdr:cNvPr id="63" name="CaixaDeTexto 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -36658,7 +38026,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="CaixaDeTexto 63"/>
+        <xdr:cNvPr id="64" name="CaixaDeTexto 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -36721,7 +38095,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="CaixaDeTexto 64"/>
+        <xdr:cNvPr id="65" name="CaixaDeTexto 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -36784,7 +38164,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="CaixaDeTexto 65"/>
+        <xdr:cNvPr id="66" name="CaixaDeTexto 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -36862,7 +38248,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'TABELAS-GERAIS'!F13">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="CaixaDeTexto 66"/>
+        <xdr:cNvPr id="67" name="CaixaDeTexto 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -36905,6 +38297,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>40</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="3200" b="1">
@@ -36933,7 +38326,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'TABELAS-GERAIS'!C5">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="CaixaDeTexto 67"/>
+        <xdr:cNvPr id="68" name="CaixaDeTexto 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -36976,6 +38375,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>54</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
@@ -37004,7 +38404,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'TABELAS-GERAIS'!C6">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="CaixaDeTexto 68"/>
+        <xdr:cNvPr id="69" name="CaixaDeTexto 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -37047,6 +38453,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>36</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
@@ -37075,7 +38482,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'TABELAS-GERAIS'!C7">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="CaixaDeTexto 69"/>
+        <xdr:cNvPr id="70" name="CaixaDeTexto 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -37118,6 +38531,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>54</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
@@ -37146,7 +38560,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'TABELAS-GERAIS'!C8">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="CaixaDeTexto 70"/>
+        <xdr:cNvPr id="71" name="CaixaDeTexto 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -37189,6 +38609,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>144</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
@@ -37222,7 +38643,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Retângulo 1"/>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -37294,7 +38721,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Retângulo Arredondado 2"/>
+        <xdr:cNvPr id="3" name="Retângulo Arredondado 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -37363,7 +38796,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo Arredondado 3"/>
+        <xdr:cNvPr id="4" name="Retângulo Arredondado 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -37432,7 +38871,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Retângulo Arredondado 4"/>
+        <xdr:cNvPr id="5" name="Retângulo Arredondado 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -37501,7 +38946,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Retângulo Arredondado 5"/>
+        <xdr:cNvPr id="6" name="Retângulo Arredondado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -37570,20 +39021,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Agrupar 6"/>
+        <xdr:cNvPr id="7" name="Agrupar 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3673249" y="1485899"/>
-          <a:ext cx="7006658" cy="3766459"/>
+          <a:off x="3744686" y="1485899"/>
+          <a:ext cx="7137627" cy="3766459"/>
           <a:chOff x="3673248" y="1485899"/>
           <a:chExt cx="14098021" cy="3766459"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Retângulo Arredondado 7"/>
+          <xdr:cNvPr id="8" name="Retângulo Arredondado 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -37632,7 +39095,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Retângulo Arredondado 8"/>
+          <xdr:cNvPr id="9" name="Retângulo Arredondado 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -37695,20 +39164,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Agrupar 9"/>
+        <xdr:cNvPr id="10" name="Agrupar 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3662363" y="5393870"/>
-          <a:ext cx="7014142" cy="3848102"/>
+          <a:off x="3733800" y="5393870"/>
+          <a:ext cx="7145111" cy="3848102"/>
           <a:chOff x="3662363" y="5393870"/>
           <a:chExt cx="7014142" cy="3848102"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Retângulo Arredondado 10"/>
+          <xdr:cNvPr id="11" name="Retângulo Arredondado 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -37757,7 +39238,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Retângulo Arredondado 11"/>
+          <xdr:cNvPr id="12" name="Retângulo Arredondado 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -37820,20 +39307,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="Agrupar 12"/>
+        <xdr:cNvPr id="13" name="Agrupar 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10853397" y="5393872"/>
-          <a:ext cx="6960056" cy="3864429"/>
+          <a:off x="11055803" y="5393872"/>
+          <a:ext cx="7102931" cy="3864429"/>
           <a:chOff x="10853397" y="5393872"/>
           <a:chExt cx="6960056" cy="3864429"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Retângulo Arredondado 13"/>
+          <xdr:cNvPr id="14" name="Retângulo Arredondado 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -37882,7 +39381,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Retângulo Arredondado 14"/>
+          <xdr:cNvPr id="15" name="Retângulo Arredondado 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -37945,7 +39450,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 1" descr="&lt;svg xmlns=&quot;http://www.w3.org/2000/svg&quot; height=&quot;24px&quot; viewBox=&quot;0 -960 960 960&quot; width=&quot;24px&quot; fill=&quot;#e8eaed&quot;&gt;&lt;path d=&quot;M640-520q17 0 28.5-11.5T680-560q0-17-11.5-28.5T640-600q-17 0-28.5 11.5T600-560q0 17 11.5 28.5T640-520Zm-320-80h200v-80H320v80ZM180-120q-34-114-67-227.5T80-580q0-92 64-156t156-64h200q29-38 70.5-59t89.5-21q25 0 42.5 17.5T720-820q0 6-1.5 12t-3.5 11q-4 11-7.5 22.5T702-751l91 91h87v279l-113 37-67 224H480v-80h-80v80H180Zm60-80h80v-80h240v80h80l62-206 98-33v-141h-40L620-720q0-20 2.5-38.5T630-796q-29 8-51 27.5T547-720H300q-58 0-99 41t-41 99q0 98 27 191.5T240-200Zm240-298Z&quot;/&gt;&lt;/svg&gt;"/>
+        <xdr:cNvPr id="16" name="AutoShape 1" descr="&lt;svg xmlns=&quot;http://www.w3.org/2000/svg&quot; height=&quot;24px&quot; viewBox=&quot;0 -960 960 960&quot; width=&quot;24px&quot; fill=&quot;#e8eaed&quot;&gt;&lt;path d=&quot;M640-520q17 0 28.5-11.5T680-560q0-17-11.5-28.5T640-600q-17 0-28.5 11.5T600-560q0 17 11.5 28.5T640-520Zm-320-80h200v-80H320v80ZM180-120q-34-114-67-227.5T80-580q0-92 64-156t156-64h200q29-38 70.5-59t89.5-21q25 0 42.5 17.5T720-820q0 6-1.5 12t-3.5 11q-4 11-7.5 22.5T702-751l91 91h87v279l-113 37-67 224H480v-80h-80v80H180Zm60-80h80v-80h240v80h80l62-206 98-33v-141h-40L620-720q0-20 2.5-38.5T630-796q-29 8-51 27.5T547-720H300q-58 0-99 41t-41 99q0 98 27 191.5T240-200Zm240-298Z&quot;/&gt;&lt;/svg&gt;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -37987,7 +39498,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CaixaDeTexto 16"/>
+        <xdr:cNvPr id="17" name="CaixaDeTexto 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38050,7 +39567,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CaixaDeTexto 17"/>
+        <xdr:cNvPr id="18" name="CaixaDeTexto 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38128,7 +39651,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CaixaDeTexto 18"/>
+        <xdr:cNvPr id="19" name="CaixaDeTexto 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38206,7 +39735,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CaixaDeTexto 19"/>
+        <xdr:cNvPr id="20" name="CaixaDeTexto 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38293,7 +39828,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CaixaDeTexto 20"/>
+        <xdr:cNvPr id="21" name="CaixaDeTexto 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38371,7 +39912,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Conector reto 21"/>
+        <xdr:cNvPr id="22" name="Conector reto 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -38420,7 +39967,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagem 22"/>
+        <xdr:cNvPr id="23" name="Imagem 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -38464,7 +40017,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="24" name="Gráfico 23"/>
+        <xdr:cNvPr id="24" name="Gráfico 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -38498,6 +40057,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="Retângulo Arredondado 24">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -38574,6 +40138,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="Retângulo Arredondado 25">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -38650,6 +40219,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="Retângulo Arredondado 26">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -38724,7 +40298,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Retângulo Arredondado 27"/>
+        <xdr:cNvPr id="28" name="Retângulo Arredondado 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38798,7 +40378,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="29" name="Gráfico 28"/>
+        <xdr:cNvPr id="29" name="Gráfico 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -38830,7 +40416,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="30" name="Gráfico 29"/>
+        <xdr:cNvPr id="30" name="Gráfico 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -38862,7 +40454,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="31" name="Gráfico 30"/>
+        <xdr:cNvPr id="31" name="Gráfico 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -38894,7 +40492,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CaixaDeTexto 43"/>
+        <xdr:cNvPr id="44" name="CaixaDeTexto 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38972,7 +40576,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CaixaDeTexto 44"/>
+        <xdr:cNvPr id="45" name="CaixaDeTexto 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -39050,7 +40660,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CaixaDeTexto 45"/>
+        <xdr:cNvPr id="46" name="CaixaDeTexto 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -39128,7 +40744,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'REDES-SOCIAIS'!C3">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CaixaDeTexto 48"/>
+        <xdr:cNvPr id="49" name="CaixaDeTexto 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -39171,6 +40793,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>1689</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2000" b="1">
@@ -39199,7 +40822,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'REDES-SOCIAIS'!F3">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CaixaDeTexto 49"/>
+        <xdr:cNvPr id="50" name="CaixaDeTexto 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -39242,6 +40871,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>56</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="8800" b="1">
@@ -39270,7 +40900,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'REDES-SOCIAIS'!L3">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CaixaDeTexto 50"/>
+        <xdr:cNvPr id="51" name="CaixaDeTexto 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -39313,6 +40949,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>3229</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2000" b="1">
@@ -39341,20 +40978,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="53" name="Agrupar 52"/>
+        <xdr:cNvPr id="53" name="Agrupar 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10850336" y="1483518"/>
-          <a:ext cx="7006658" cy="3766459"/>
+          <a:off x="11052742" y="1483518"/>
+          <a:ext cx="7149533" cy="3766459"/>
           <a:chOff x="3673248" y="1485899"/>
           <a:chExt cx="14098021" cy="3766459"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="Retângulo Arredondado 53"/>
+          <xdr:cNvPr id="54" name="Retângulo Arredondado 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -39403,7 +41052,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="Retângulo Arredondado 54"/>
+          <xdr:cNvPr id="55" name="Retângulo Arredondado 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -39466,7 +41121,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="56" name="Gráfico 55"/>
+        <xdr:cNvPr id="56" name="Gráfico 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -39496,7 +41157,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="57" name="Gráfico 56"/>
+        <xdr:cNvPr id="57" name="Gráfico 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -39526,7 +41193,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="59" name="Gráfico 58"/>
+        <xdr:cNvPr id="59" name="Gráfico 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -39558,7 +41231,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="CaixaDeTexto 59"/>
+        <xdr:cNvPr id="60" name="CaixaDeTexto 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -39636,7 +41315,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Imagem 60"/>
+        <xdr:cNvPr id="61" name="Imagem 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -39680,7 +41365,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Imagem 61"/>
+        <xdr:cNvPr id="62" name="Imagem 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -39724,7 +41415,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Imagem 62"/>
+        <xdr:cNvPr id="63" name="Imagem 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -39768,7 +41465,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Imagem 63"/>
+        <xdr:cNvPr id="64" name="Imagem 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -39812,7 +41515,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Imagem 64"/>
+        <xdr:cNvPr id="65" name="Imagem 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -39856,7 +41565,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Imagem 65"/>
+        <xdr:cNvPr id="66" name="Imagem 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -39900,7 +41615,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Imagem 66"/>
+        <xdr:cNvPr id="67" name="Imagem 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -39942,11 +41663,17 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>59530</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="68" name="MÊS 5"/>
+            <xdr:cNvPr id="68" name="MÊS 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -39960,7 +41687,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -40021,7 +41748,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Retângulo 1"/>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -40093,7 +41826,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Retângulo Arredondado 2"/>
+        <xdr:cNvPr id="3" name="Retângulo Arredondado 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -40162,7 +41901,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo Arredondado 3"/>
+        <xdr:cNvPr id="4" name="Retângulo Arredondado 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -40231,7 +41976,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Retângulo Arredondado 4"/>
+        <xdr:cNvPr id="5" name="Retângulo Arredondado 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -40300,7 +42051,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Retângulo Arredondado 5"/>
+        <xdr:cNvPr id="6" name="Retângulo Arredondado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -40369,20 +42126,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Agrupar 6"/>
+        <xdr:cNvPr id="7" name="Agrupar 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3673248" y="1485899"/>
-          <a:ext cx="14098021" cy="3766459"/>
+          <a:off x="3751330" y="1547922"/>
+          <a:ext cx="14397339" cy="3943669"/>
           <a:chOff x="3673248" y="1485899"/>
           <a:chExt cx="14098021" cy="3766459"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Retângulo Arredondado 7"/>
+          <xdr:cNvPr id="8" name="Retângulo Arredondado 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -40431,7 +42200,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Retângulo Arredondado 8"/>
+          <xdr:cNvPr id="9" name="Retângulo Arredondado 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -40494,20 +42269,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Agrupar 9"/>
+        <xdr:cNvPr id="10" name="Agrupar 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3662363" y="5393870"/>
-          <a:ext cx="7014142" cy="3848102"/>
+          <a:off x="3740445" y="5641963"/>
+          <a:ext cx="7157294" cy="4025311"/>
           <a:chOff x="3662363" y="5393870"/>
           <a:chExt cx="7014142" cy="3848102"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Retângulo Arredondado 10"/>
+          <xdr:cNvPr id="11" name="Retângulo Arredondado 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -40556,7 +42343,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Retângulo Arredondado 11"/>
+          <xdr:cNvPr id="12" name="Retângulo Arredondado 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -40619,20 +42412,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="Agrupar 12"/>
+        <xdr:cNvPr id="13" name="Agrupar 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10853397" y="5393872"/>
-          <a:ext cx="6960056" cy="3864429"/>
+          <a:off x="11074631" y="5641965"/>
+          <a:ext cx="7116222" cy="4041638"/>
           <a:chOff x="10853397" y="5393872"/>
           <a:chExt cx="6960056" cy="3864429"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Retângulo Arredondado 13"/>
+          <xdr:cNvPr id="14" name="Retângulo Arredondado 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -40681,7 +42486,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Retângulo Arredondado 14"/>
+          <xdr:cNvPr id="15" name="Retângulo Arredondado 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -40744,7 +42555,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 1" descr="&lt;svg xmlns=&quot;http://www.w3.org/2000/svg&quot; height=&quot;24px&quot; viewBox=&quot;0 -960 960 960&quot; width=&quot;24px&quot; fill=&quot;#e8eaed&quot;&gt;&lt;path d=&quot;M640-520q17 0 28.5-11.5T680-560q0-17-11.5-28.5T640-600q-17 0-28.5 11.5T600-560q0 17 11.5 28.5T640-520Zm-320-80h200v-80H320v80ZM180-120q-34-114-67-227.5T80-580q0-92 64-156t156-64h200q29-38 70.5-59t89.5-21q25 0 42.5 17.5T720-820q0 6-1.5 12t-3.5 11q-4 11-7.5 22.5T702-751l91 91h87v279l-113 37-67 224H480v-80h-80v80H180Zm60-80h80v-80h240v80h80l62-206 98-33v-141h-40L620-720q0-20 2.5-38.5T630-796q-29 8-51 27.5T547-720H300q-58 0-99 41t-41 99q0 98 27 191.5T240-200Zm240-298Z&quot;/&gt;&lt;/svg&gt;"/>
+        <xdr:cNvPr id="16" name="AutoShape 1" descr="&lt;svg xmlns=&quot;http://www.w3.org/2000/svg&quot; height=&quot;24px&quot; viewBox=&quot;0 -960 960 960&quot; width=&quot;24px&quot; fill=&quot;#e8eaed&quot;&gt;&lt;path d=&quot;M640-520q17 0 28.5-11.5T680-560q0-17-11.5-28.5T640-600q-17 0-28.5 11.5T600-560q0 17 11.5 28.5T640-520Zm-320-80h200v-80H320v80ZM180-120q-34-114-67-227.5T80-580q0-92 64-156t156-64h200q29-38 70.5-59t89.5-21q25 0 42.5 17.5T720-820q0 6-1.5 12t-3.5 11q-4 11-7.5 22.5T702-751l91 91h87v279l-113 37-67 224H480v-80h-80v80H180Zm60-80h80v-80h240v80h80l62-206 98-33v-141h-40L620-720q0-20 2.5-38.5T630-796q-29 8-51 27.5T547-720H300q-58 0-99 41t-41 99q0 98 27 191.5T240-200Zm240-298Z&quot;/&gt;&lt;/svg&gt;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -40786,7 +42603,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CaixaDeTexto 16"/>
+        <xdr:cNvPr id="17" name="CaixaDeTexto 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -40864,7 +42687,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CaixaDeTexto 17"/>
+        <xdr:cNvPr id="18" name="CaixaDeTexto 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -40933,7 +42762,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CaixaDeTexto 18"/>
+        <xdr:cNvPr id="19" name="CaixaDeTexto 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -41011,7 +42846,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CaixaDeTexto 19"/>
+        <xdr:cNvPr id="20" name="CaixaDeTexto 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -41098,7 +42939,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CaixaDeTexto 20"/>
+        <xdr:cNvPr id="21" name="CaixaDeTexto 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -41176,7 +43023,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Conector reto 21"/>
+        <xdr:cNvPr id="22" name="Conector reto 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -41225,7 +43078,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagem 22"/>
+        <xdr:cNvPr id="23" name="Imagem 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -41269,7 +43128,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="24" name="Gráfico 23"/>
+        <xdr:cNvPr id="24" name="Gráfico 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -41303,6 +43168,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="Retângulo Arredondado 24">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -41379,6 +43249,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="Retângulo Arredondado 25">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -41455,6 +43330,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="Retângulo Arredondado 26">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -41529,7 +43409,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Retângulo Arredondado 27"/>
+        <xdr:cNvPr id="28" name="Retângulo Arredondado 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -41603,7 +43489,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="29" name="Gráfico 28"/>
+        <xdr:cNvPr id="29" name="Gráfico 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -41635,7 +43527,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="30" name="Gráfico 29"/>
+        <xdr:cNvPr id="30" name="Gráfico 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -41665,11 +43563,17 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>59532</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="32" name="MÊS 6"/>
+            <xdr:cNvPr id="32" name="MÊS 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -41683,7 +43587,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -41739,7 +43643,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Retângulo Arredondado 32"/>
+        <xdr:cNvPr id="33" name="Retângulo Arredondado 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -41808,7 +43718,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Retângulo Arredondado 33"/>
+        <xdr:cNvPr id="34" name="Retângulo Arredondado 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -41877,7 +43793,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Imagem 34"/>
+        <xdr:cNvPr id="35" name="Imagem 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -41921,7 +43843,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Imagem 35"/>
+        <xdr:cNvPr id="36" name="Imagem 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -41965,7 +43893,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Imagem 36"/>
+        <xdr:cNvPr id="37" name="Imagem 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -42009,7 +43943,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Imagem 37"/>
+        <xdr:cNvPr id="38" name="Imagem 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -42053,7 +43993,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Imagem 38"/>
+        <xdr:cNvPr id="39" name="Imagem 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -42097,7 +44043,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Imagem 39"/>
+        <xdr:cNvPr id="40" name="Imagem 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -42141,7 +44093,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Imagem 40"/>
+        <xdr:cNvPr id="41" name="Imagem 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -42185,7 +44143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Imagem 41"/>
+        <xdr:cNvPr id="42" name="Imagem 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -42229,7 +44193,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CaixaDeTexto 42"/>
+        <xdr:cNvPr id="43" name="CaixaDeTexto 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -42307,7 +44277,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CaixaDeTexto 43"/>
+        <xdr:cNvPr id="44" name="CaixaDeTexto 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -42370,7 +44346,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CaixaDeTexto 44"/>
+        <xdr:cNvPr id="45" name="CaixaDeTexto 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -42433,7 +44415,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CaixaDeTexto 45"/>
+        <xdr:cNvPr id="46" name="CaixaDeTexto 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -42496,7 +44484,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CaixaDeTexto 46"/>
+        <xdr:cNvPr id="47" name="CaixaDeTexto 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -42574,7 +44568,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'TABELAS-GERAIS'!F13">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CaixaDeTexto 47"/>
+        <xdr:cNvPr id="48" name="CaixaDeTexto 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -42617,6 +44617,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>40</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="3200" b="1">
@@ -42645,7 +44646,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'TABELAS-GERAIS'!C5">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CaixaDeTexto 48"/>
+        <xdr:cNvPr id="49" name="CaixaDeTexto 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -42688,6 +44695,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>54</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
@@ -42716,7 +44724,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'TABELAS-GERAIS'!C6">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CaixaDeTexto 49"/>
+        <xdr:cNvPr id="50" name="CaixaDeTexto 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -42759,6 +44773,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>36</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
@@ -42787,7 +44802,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'TABELAS-GERAIS'!C7">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CaixaDeTexto 50"/>
+        <xdr:cNvPr id="51" name="CaixaDeTexto 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -42830,6 +44851,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>54</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
@@ -42858,7 +44880,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'TABELAS-GERAIS'!C8">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CaixaDeTexto 51"/>
+        <xdr:cNvPr id="52" name="CaixaDeTexto 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -42901,6 +44929,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>144</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
@@ -42929,7 +44958,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="53" name="Gráfico 52"/>
+        <xdr:cNvPr id="53" name="Gráfico 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -42959,7 +44994,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="54" name="Gráfico 53"/>
+        <xdr:cNvPr id="54" name="Gráfico 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -42989,7 +45030,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="55" name="Gráfico 54"/>
+        <xdr:cNvPr id="55" name="Gráfico 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -43008,7 +45055,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Turma Manha" refreshedDate="45461.390302777778" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Turma Manha" refreshedDate="45461.390302777778" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela2"/>
   </cacheSource>
@@ -43040,7 +45087,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Turma Manha" refreshedDate="45462.488292245369" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="600">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Turma Manha" refreshedDate="45462.488292245369" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="600" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -43599,7 +45646,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Turma Manha" refreshedDate="45463.487534837965" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Turma Manha" refreshedDate="45463.487534837965" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4" xr:uid="{00000000-000A-0000-FFFF-FFFF1D000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela3"/>
   </cacheSource>
@@ -50319,7 +52366,1587 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="Tabela dinâmica7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="E4:F14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
+      <items count="10">
+        <item x="1"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de PROCEDIMENTO" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="Tabela dinâmica15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="K2:N7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="-LUCRO" fld="1" baseField="0" baseItem="2"/>
+    <dataField name="-GASTOS" fld="2" baseField="0" baseItem="2"/>
+    <dataField name="-LUCRO REAL" fld="3" baseField="0" baseItem="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="39">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="Tabela dinâmica19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="K2:N7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="9">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="-MANICURE-VIZUALIZAÇÃO" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="-CÍLIOS VIZUALIZAÇÃO" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="-SOBRANCELHA VIZUALIZAÇÃO" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica18" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="H2:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de STORYS VIZUALIZAÇÃO" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="9">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabela dinâmica17" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="E2:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de NOVOS SEGUIDORES" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela dinâmica16" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B2:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de SEGUIDORES" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="Tabela dinâmica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B4:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item h="1" sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item h="1" sd="0" x="2"/>
+        <item h="1" sd="0" x="3"/>
+        <item h="1" sd="0" x="4"/>
+        <item h="1" sd="0" x="5"/>
+        <item h="1" sd="0" x="6"/>
+        <item h="1" sd="0" x="7"/>
+        <item h="1" sd="0" x="8"/>
+        <item h="1" sd="0" x="9"/>
+        <item h="1" sd="0" x="10"/>
+        <item h="1" sd="0" x="11"/>
+        <item h="1" sd="0" x="12"/>
+        <item h="1" sd="0" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de FORMA DE PAGAMENTO" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="K25:L35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0">
@@ -50824,487 +54451,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="H2:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de LUCRO REAL" fld="3" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="55">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica18" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="H2:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de STORYS VIZUALIZAÇÃO" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica17" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="E2:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de NOVOS SEGUIDORES" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica16" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B2:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de SEGUIDORES" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica19" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="K2:N7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="9">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="-MANICURE-VIZUALIZAÇÃO" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="-CÍLIOS VIZUALIZAÇÃO" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="-SOBRANCELHA VIZUALIZAÇÃO" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica11" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="Tabela dinâmica11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="E50:F64" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0">
@@ -51963,12 +55118,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tabela dinâmica10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="B50:C54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0">
@@ -52410,7 +55568,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
+    <pageField fld="1" item="5" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Contagem de FEEDBACK" fld="7" subtotal="count" baseField="0" baseItem="0"/>
@@ -52467,13 +55625,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="H2:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000005000000}" name="Tabela dinâmica8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="H2:I4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0">
       <items count="369">
@@ -52850,14 +56011,14 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="8">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
       </items>
     </pivotField>
     <pivotField numFmtId="20" showAll="0"/>
@@ -52889,18 +56050,9 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -52928,451 +56080,34 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="E4:F14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="369">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="Tabela dinâmica14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="H2:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="20" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
-      <items count="10">
-        <item x="1"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-      </items>
-    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -53383,22 +56118,7 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -53407,14 +56127,16 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
-    <dataField name="Contagem de PROCEDIMENTO" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Soma de LUCRO REAL" fld="3" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="36">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="1">
-    <chartFormat chart="1" format="1" series="1">
+    <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -53429,516 +56151,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B4:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="20" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item h="1" sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item h="1" sd="0" x="2"/>
-        <item h="1" sd="0" x="3"/>
-        <item h="1" sd="0" x="4"/>
-        <item h="1" sd="0" x="5"/>
-        <item h="1" sd="0" x="6"/>
-        <item h="1" sd="0" x="7"/>
-        <item h="1" sd="0" x="8"/>
-        <item h="1" sd="0" x="9"/>
-        <item h="1" sd="0" x="10"/>
-        <item h="1" sd="0" x="11"/>
-        <item h="1" sd="0" x="12"/>
-        <item h="1" sd="0" x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Contagem de FORMA DE PAGAMENTO" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="E2:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -53981,7 +56202,7 @@
     <dataField name="Soma de GASTOS" fld="2" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="52">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -54049,12 +56270,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Tabela dinâmica12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B2:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -54097,7 +56321,7 @@
     <dataField name="Soma de LUCRO" fld="1" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="53">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -54117,111 +56341,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="K2:N7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="-LUCRO" fld="1" baseField="0" baseItem="2"/>
-    <dataField name="-GASTOS" fld="2" baseField="0" baseItem="2"/>
-    <dataField name="-LUCRO REAL" fld="3" baseField="0" baseItem="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="54">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_MÊS1" sourceName="MÊS">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_MÊS1" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="MÊS">
   <pivotTables>
     <pivotTable tabId="14" name="Tabela dinâmica12"/>
     <pivotTable tabId="14" name="Tabela dinâmica13"/>
@@ -54242,7 +56370,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_MÊS" sourceName="MÊS">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_MÊS" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="MÊS">
   <pivotTables>
     <pivotTable tabId="15" name="Tabela dinâmica19"/>
     <pivotTable tabId="15" name="Tabela dinâmica16"/>
@@ -54267,11 +56395,12 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_MÊS2" sourceName="MÊS">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_MÊS2" xr10:uid="{00000000-0013-0000-FFFF-FFFF03000000}" sourceName="MÊS">
   <pivotTables>
     <pivotTable tabId="10" name="Tabela dinâmica6"/>
     <pivotTable tabId="10" name="Tabela dinâmica11"/>
     <pivotTable tabId="10" name="Tabela dinâmica7"/>
+    <pivotTable tabId="10" name="Tabela dinâmica10"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
@@ -54296,73 +56425,73 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="MÊS 3" cache="SegmentaçãodeDados_MÊS2" caption="MÊS" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="MÊS 3" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="SegmentaçãodeDados_MÊS2" caption="MÊS" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="MÊS 1" cache="SegmentaçãodeDados_MÊS1" caption="MÊS" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="MÊS 1" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="SegmentaçãodeDados_MÊS1" caption="MÊS" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="MÊS" cache="SegmentaçãodeDados_MÊS" caption="MÊS" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="MÊS" xr10:uid="{00000000-0014-0000-FFFF-FFFF03000000}" cache="SegmentaçãodeDados_MÊS" caption="MÊS" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="MÊS 2" cache="SegmentaçãodeDados_MÊS1" caption="MÊS" style="willyan" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="MÊS 2" xr10:uid="{00000000-0014-0000-FFFF-FFFF04000000}" cache="SegmentaçãodeDados_MÊS1" caption="MÊS" style="willyan" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer5.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="MÊS 4" cache="SegmentaçãodeDados_MÊS2" caption="MÊS" style="willyan" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="MÊS 4" xr10:uid="{00000000-0014-0000-FFFF-FFFF05000000}" cache="SegmentaçãodeDados_MÊS2" caption="MÊS" style="willyan" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer6.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="MÊS 5" cache="SegmentaçãodeDados_MÊS" caption="MÊS" style="willyan" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="MÊS 5" xr10:uid="{00000000-0014-0000-FFFF-FFFF06000000}" cache="SegmentaçãodeDados_MÊS" caption="MÊS" style="willyan" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer7.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="MÊS 6" cache="SegmentaçãodeDados_MÊS2" caption="MÊS" style="willyan" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="MÊS 6" xr10:uid="{00000000-0014-0000-FFFF-FFFF07000000}" cache="SegmentaçãodeDados_MÊS2" caption="MÊS" style="willyan" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B3:J603" totalsRowShown="0">
-  <autoFilter ref="B3:J603"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B3:J603" totalsRowShown="0">
+  <autoFilter ref="B3:J603" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="DATA" dataDxfId="61"/>
-    <tableColumn id="2" name="MÊS" dataDxfId="60"/>
-    <tableColumn id="3" name="HORARIO" dataDxfId="59"/>
-    <tableColumn id="4" name="CLIENTE"/>
-    <tableColumn id="5" name="PROCEDIMENTO" dataDxfId="58" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="VALOR" dataDxfId="57" dataCellStyle="Moeda"/>
-    <tableColumn id="7" name="FORMA DE PAGAMENTO"/>
-    <tableColumn id="8" name="FEEDBACK"/>
-    <tableColumn id="9" name="FAIXA ETÁRIA"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MÊS" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="HORARIO" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CLIENTE"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PROCEDIMENTO" dataDxfId="42" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="VALOR" dataDxfId="41" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FORMA DE PAGAMENTO"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FEEDBACK"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="FAIXA ETÁRIA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="L3:O7" totalsRowShown="0">
-  <autoFilter ref="L3:O7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="L3:O7" totalsRowShown="0">
+  <autoFilter ref="L3:O7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="MÊS"/>
-    <tableColumn id="2" name="LUCRO" dataDxfId="56"/>
-    <tableColumn id="3" name="GASTOS" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="LUCRO REAL" dataCellStyle="Moeda">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="MÊS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="LUCRO" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="GASTOS" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="LUCRO REAL" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -54371,16 +56500,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="L10:R14" totalsRowShown="0">
-  <autoFilter ref="L10:R14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela3" displayName="Tabela3" ref="L10:R14" totalsRowShown="0">
+  <autoFilter ref="L10:R14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="MÊS"/>
-    <tableColumn id="2" name="SEGUIDORES"/>
-    <tableColumn id="3" name="NOVOS SEGUIDORES"/>
-    <tableColumn id="4" name="STORYS VIZUALIZAÇÃO"/>
-    <tableColumn id="5" name="MANICURE-VIZUALIZAÇÃO"/>
-    <tableColumn id="6" name="CÍLIOS VIZUALIZAÇÃO"/>
-    <tableColumn id="7" name="SOBRANCELHA VIZUALIZAÇÃO"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="MÊS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SEGUIDORES"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="NOVOS SEGUIDORES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="STORYS VIZUALIZAÇÃO"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="MANICURE-VIZUALIZAÇÃO"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="CÍLIOS VIZUALIZAÇÃO"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="SOBRANCELHA VIZUALIZAÇÃO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -54648,7 +56777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R648"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -72553,21 +74682,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="37" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" customWidth="1"/>
     <col min="12" max="12" width="28.140625" customWidth="1"/>
   </cols>
@@ -72594,10 +74724,10 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H3" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I3" s="10">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="10"/>
@@ -72616,7 +74746,7 @@
         <v>327</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="I4" s="10">
         <v>144</v>
@@ -72637,12 +74767,6 @@
       <c r="F5" s="10">
         <v>2</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="I5" s="10">
-        <v>164</v>
-      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="10"/>
     </row>
@@ -72659,12 +74783,6 @@
       <c r="F6" s="10">
         <v>3</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="I6" s="10">
-        <v>209</v>
-      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="10"/>
     </row>
@@ -72681,12 +74799,6 @@
       <c r="F7" s="10">
         <v>7</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="I7" s="10">
-        <v>600</v>
-      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="10"/>
     </row>
@@ -72853,7 +74965,7 @@
         <v>303</v>
       </c>
       <c r="C48" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>303</v>
@@ -72881,7 +74993,7 @@
         <v>316</v>
       </c>
       <c r="C51" s="10">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="E51" s="9">
         <v>16</v>
@@ -72895,7 +75007,7 @@
         <v>317</v>
       </c>
       <c r="C52" s="10">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="E52" s="9">
         <v>18</v>
@@ -72909,7 +75021,7 @@
         <v>318</v>
       </c>
       <c r="C53" s="10">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E53" s="9">
         <v>20</v>
@@ -72923,7 +75035,7 @@
         <v>312</v>
       </c>
       <c r="C54" s="10">
-        <v>600</v>
+        <v>144</v>
       </c>
       <c r="E54" s="9">
         <v>22</v>
@@ -73026,7 +75138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -73042,8 +75154,7 @@
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
@@ -73252,7 +75363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:N7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -73479,10 +75590,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="42" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -73500,10 +75611,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -73521,10 +75632,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -73542,10 +75653,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="43" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/willyan.xlsx
+++ b/willyan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filhos\Documents\willyan\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB55935B-92E7-44EA-B898-0913304101A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBAAA69-0AD8-49BF-8682-EA5013DC331A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,12 @@
     <sheet name="TABELAS-GERAIS" sheetId="10" r:id="rId2"/>
     <sheet name="CONTABILIDADE" sheetId="14" r:id="rId3"/>
     <sheet name="REDES-SOCIAIS" sheetId="15" r:id="rId4"/>
-    <sheet name="DASHBOARD-PRÁTICA" sheetId="16" r:id="rId5"/>
-    <sheet name="DASHBOARD-PRÁTICA (2)" sheetId="17" r:id="rId6"/>
-    <sheet name="DASHBOARD-PRÁTICA (3)" sheetId="18" r:id="rId7"/>
-    <sheet name="DASHBOARD-PRÁTICA (4)" sheetId="19" r:id="rId8"/>
+    <sheet name="DASHBOARD-CONTABILIDADE" sheetId="16" r:id="rId5"/>
+    <sheet name="DASHBOARD-PRODUTOS" sheetId="17" r:id="rId6"/>
+    <sheet name="DASHBOARD-REDESSOCIAIS" sheetId="18" r:id="rId7"/>
+    <sheet name="DASHBOARD-CLIENTES" sheetId="19" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'TABELAS-GERAIS'!$H$3:$H$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'TABELAS-GERAIS'!$I$3:$I$6</definedName>
     <definedName name="SegmentaçãodeDados_MÊS">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_MÊS1">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_MÊS2">#N/A</definedName>
@@ -60,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="343">
   <si>
     <t>TABELA GERAL</t>
   </si>
@@ -1182,67 +1180,7 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1366,17 +1304,21 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="willyan" pivot="0" table="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="46"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FFBB6363"/>
-      <color rgb="FFF49180"/>
-      <color rgb="FFF5B6B9"/>
-      <color rgb="FFF59564"/>
+      <color rgb="FF613A33"/>
+      <color rgb="FFF9C8BF"/>
+      <color rgb="FF93574C"/>
+      <color rgb="FFF7B2A6"/>
+      <color rgb="FFF59C8C"/>
+      <color rgb="FFC37466"/>
+      <color rgb="FFDB8273"/>
+      <color rgb="FFFF33CC"/>
+      <color rgb="FFF57D64"/>
       <color rgb="FFF57C64"/>
-      <color rgb="FFF57D64"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1730,13 +1672,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5538,13 +5480,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5819,25 +5761,25 @@
                   <c:v>ALONGAMENTO</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CÍLIOS</c:v>
+                  <c:v>ESMALTAÇÃO EM GEL</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ESMALTAÇÃO EM GEL</c:v>
+                  <c:v>CÍLIOS</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>SOBRANCELHA</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>MANICURE-BLINDAGEM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>MANICURE-FIBRA</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>MANICURE-BLINDAGEM</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>PÉ</c:v>
+                  <c:v>MÃO</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MÃO</c:v>
+                  <c:v>PÉ</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>PÉ + MÃO</c:v>
@@ -5852,31 +5794,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6147,25 +6089,25 @@
                   <c:v>ALONGAMENTO</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CÍLIOS</c:v>
+                  <c:v>ESMALTAÇÃO EM GEL</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ESMALTAÇÃO EM GEL</c:v>
+                  <c:v>CÍLIOS</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>SOBRANCELHA</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>MANICURE-BLINDAGEM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>MANICURE-FIBRA</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>MANICURE-BLINDAGEM</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>PÉ</c:v>
+                  <c:v>MÃO</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MÃO</c:v>
+                  <c:v>PÉ</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>PÉ + MÃO</c:v>
@@ -6180,31 +6122,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9108,23 +9050,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TABELAS-GERAIS'!$H$3:$H$4</c:f>
+              <c:f>'TABELAS-GERAIS'!$H$3:$H$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>JANEIRO</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>FEVEREIRO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MARÇO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABRIL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TABELAS-GERAIS'!$I$3:$I$4</c:f>
+              <c:f>'TABELAS-GERAIS'!$I$3:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9622,12 +9582,18 @@
             <c:strRef>
               <c:f>'TABELAS-GERAIS'!$H$3:$H$6</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>JANEIRO</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>FEVEREIRO</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total Geral</c:v>
+                <c:pt idx="2">
+                  <c:v>MARÇO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABRIL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9639,10 +9605,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>144</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9802,7 +9774,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="F5B6B9"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -9820,7 +9792,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -9838,7 +9810,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="BB6363"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -9851,19 +9823,113 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5010-4144-8D19-BA1EA4DC1CEF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'TABELAS-GERAIS'!$B$51:$B$53</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>ÓTIMO</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>BOM</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>EXCELENTE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ÓTIMO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9875,13 +9941,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10037,7 +10103,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="F5B6B9"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -10055,7 +10121,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="BB6363"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -10073,7 +10139,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="F49180"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -10091,7 +10157,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="F59564"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -10109,7 +10175,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="F57C64"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -10127,7 +10193,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -10145,9 +10211,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="613A33"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -10165,9 +10229,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="F9C8BF"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -10185,9 +10247,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="93574C"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -10205,9 +10265,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="F7B2A6"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -10225,9 +10283,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="F59C8C"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -10245,9 +10301,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C37466"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -10265,10 +10319,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:srgbClr val="DB8273"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:noFill/>
@@ -10281,6 +10332,100 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-0A62-413D-B39A-81880279F8D8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'TABELAS-GERAIS'!$E$51:$E$63</c:f>
@@ -10288,43 +10433,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10336,43 +10481,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10748,13 +10893,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>ÓTIMO</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>BOM</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>EXCELENTE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ÓTIMO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10766,13 +10911,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11527,43 +11672,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11575,43 +11720,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32212,7 +32357,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>331090</xdr:colOff>
+      <xdr:colOff>331089</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>117231</xdr:rowOff>
     </xdr:to>
@@ -33180,8 +33325,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3703864" y="1422399"/>
-          <a:ext cx="14215382" cy="3585030"/>
+          <a:off x="3687535" y="1485899"/>
+          <a:ext cx="14152790" cy="3766459"/>
           <a:chOff x="3673248" y="1485899"/>
           <a:chExt cx="14098021" cy="3766459"/>
         </a:xfrm>
@@ -33323,8 +33468,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3692979" y="5139870"/>
-          <a:ext cx="7070271" cy="3666673"/>
+          <a:off x="3676650" y="5393870"/>
+          <a:ext cx="7040336" cy="3848102"/>
           <a:chOff x="3662363" y="5393870"/>
           <a:chExt cx="7014142" cy="3848102"/>
         </a:xfrm>
@@ -33466,8 +33611,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10940142" y="5139872"/>
-          <a:ext cx="7021288" cy="3683000"/>
+          <a:off x="10893878" y="5393872"/>
+          <a:ext cx="6988631" cy="3864429"/>
           <a:chOff x="10853397" y="5393872"/>
           <a:chExt cx="6960056" cy="3864429"/>
         </a:xfrm>
@@ -35327,6 +35472,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="Retângulo Arredondado 45">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
@@ -35800,8 +35946,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3744685" y="1485899"/>
-          <a:ext cx="14371865" cy="3766459"/>
+          <a:off x="3687535" y="1485899"/>
+          <a:ext cx="14152790" cy="3766459"/>
           <a:chOff x="3673248" y="1485899"/>
           <a:chExt cx="14098021" cy="3766459"/>
         </a:xfrm>
@@ -35943,8 +36089,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3733800" y="5393870"/>
-          <a:ext cx="7145111" cy="3848102"/>
+          <a:off x="3676650" y="5393870"/>
+          <a:ext cx="7040336" cy="3848102"/>
           <a:chOff x="3662363" y="5393870"/>
           <a:chExt cx="7014142" cy="3848102"/>
         </a:xfrm>
@@ -36086,8 +36232,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11055803" y="5393872"/>
-          <a:ext cx="7102931" cy="3864429"/>
+          <a:off x="10893878" y="5393872"/>
+          <a:ext cx="6988631" cy="3864429"/>
           <a:chOff x="10853397" y="5393872"/>
           <a:chExt cx="6960056" cy="3864429"/>
         </a:xfrm>
@@ -37058,6 +37204,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="43" name="Retângulo Arredondado 42">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B000000}"/>
@@ -37152,7 +37299,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37188,7 +37335,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37224,7 +37371,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37485,7 +37632,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37535,7 +37682,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37585,7 +37732,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37635,7 +37782,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37685,7 +37832,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37735,7 +37882,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37785,7 +37932,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37835,7 +37982,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -38298,7 +38445,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>40</a:t>
+            <a:t>159</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="3200" b="1">
             <a:solidFill>
@@ -38376,7 +38523,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>54</a:t>
+            <a:t>235</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
             <a:solidFill>
@@ -38454,7 +38601,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>36</a:t>
+            <a:t>138</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
             <a:solidFill>
@@ -38532,7 +38679,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>54</a:t>
+            <a:t>227</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
             <a:solidFill>
@@ -38610,7 +38757,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>144</a:t>
+            <a:t>600</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
             <a:solidFill>
@@ -39032,8 +39179,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3744686" y="1485899"/>
-          <a:ext cx="7137627" cy="3766459"/>
+          <a:off x="3687536" y="1485899"/>
+          <a:ext cx="7032852" cy="3766459"/>
           <a:chOff x="3673248" y="1485899"/>
           <a:chExt cx="14098021" cy="3766459"/>
         </a:xfrm>
@@ -39175,8 +39322,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3733800" y="5393870"/>
-          <a:ext cx="7145111" cy="3848102"/>
+          <a:off x="3676650" y="5393870"/>
+          <a:ext cx="7040336" cy="3848102"/>
           <a:chOff x="3662363" y="5393870"/>
           <a:chExt cx="7014142" cy="3848102"/>
         </a:xfrm>
@@ -39318,8 +39465,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11055803" y="5393872"/>
-          <a:ext cx="7102931" cy="3864429"/>
+          <a:off x="10893878" y="5393872"/>
+          <a:ext cx="6988631" cy="3864429"/>
           <a:chOff x="10853397" y="5393872"/>
           <a:chExt cx="6960056" cy="3864429"/>
         </a:xfrm>
@@ -40299,6 +40446,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Retângulo Arredondado 27">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
@@ -40395,7 +40543,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -40433,7 +40581,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -40471,7 +40619,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -40989,8 +41137,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11052742" y="1483518"/>
-          <a:ext cx="7149533" cy="3766459"/>
+          <a:off x="10890817" y="1483518"/>
+          <a:ext cx="7035233" cy="3766459"/>
           <a:chOff x="3673248" y="1485899"/>
           <a:chExt cx="14098021" cy="3766459"/>
         </a:xfrm>
@@ -41136,7 +41284,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -41172,7 +41320,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -41210,7 +41358,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -41327,7 +41475,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -41377,7 +41525,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -41427,7 +41575,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -41477,7 +41625,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -41527,7 +41675,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -41577,7 +41725,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -41627,7 +41775,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -41838,7 +41986,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="122465" y="136072"/>
-          <a:ext cx="3347357" cy="9103178"/>
+          <a:ext cx="3367506" cy="9191101"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -42137,8 +42285,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3751330" y="1547922"/>
-          <a:ext cx="14397339" cy="3943669"/>
+          <a:off x="3687535" y="1485899"/>
+          <a:ext cx="14152790" cy="3766459"/>
           <a:chOff x="3673248" y="1485899"/>
           <a:chExt cx="14098021" cy="3766459"/>
         </a:xfrm>
@@ -42280,8 +42428,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3740445" y="5641963"/>
-          <a:ext cx="7157294" cy="4025311"/>
+          <a:off x="3676650" y="5393870"/>
+          <a:ext cx="7040336" cy="3848102"/>
           <a:chOff x="3662363" y="5393870"/>
           <a:chExt cx="7014142" cy="3848102"/>
         </a:xfrm>
@@ -42423,8 +42571,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11074631" y="5641965"/>
-          <a:ext cx="7116222" cy="4041638"/>
+          <a:off x="10893878" y="5393872"/>
+          <a:ext cx="6988631" cy="3864429"/>
           <a:chOff x="10853397" y="5393872"/>
           <a:chExt cx="6960056" cy="3864429"/>
         </a:xfrm>
@@ -43410,6 +43558,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Retângulo Arredondado 27">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
@@ -43506,7 +43655,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -43544,7 +43693,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -43630,640 +43779,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>231323</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>121786</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>489859</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Retângulo Arredondado 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3888923" y="121786"/>
-          <a:ext cx="2696936" cy="1140277"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7800"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="F57D64"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>31978</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>169411</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>290513</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Retângulo Arredondado 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15271978" y="169411"/>
-          <a:ext cx="2696935" cy="1140277"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7800"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="F57C64"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Imagem 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3729038" y="1464469"/>
-          <a:ext cx="452437" cy="452437"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>545307</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>21431</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>92868</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Imagem 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10908507" y="5355431"/>
-          <a:ext cx="454818" cy="452437"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>59530</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Imagem 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3717130" y="5381625"/>
-          <a:ext cx="392907" cy="392907"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>33335</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>254116</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>170772</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Imagem 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15273335" y="295272"/>
-          <a:ext cx="830381" cy="828000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>59532</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>280313</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>137437</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Imagem 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6765132" y="261937"/>
-          <a:ext cx="830381" cy="828000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>452439</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>66001</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>149343</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Imagem 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9596439" y="273843"/>
-          <a:ext cx="832762" cy="828000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>173832</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>78581</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>394614</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>144581</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Imagem 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000029000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3831432" y="269081"/>
-          <a:ext cx="830382" cy="828000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>283369</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Imagem 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12475369" y="392906"/>
-          <a:ext cx="716756" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>335756</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>595311</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CaixaDeTexto 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4602956" y="785812"/>
-          <a:ext cx="2088355" cy="583407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>Quantidade</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t> produto mais vendido</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -44324,8 +43839,23 @@
               </a:solidFill>
               <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>Cartão</a:t>
+            <a:t>Total</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> clientes</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -44393,8 +43923,23 @@
               </a:solidFill>
               <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>Dinheiro</a:t>
+            <a:t>Maior</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> feedback por Mês</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -44462,76 +44007,7 @@
               </a:solidFill>
               <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>Pix</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>55790</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121786</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>488156</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133693</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CaixaDeTexto 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15905390" y="883786"/>
-          <a:ext cx="2261166" cy="583407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>Forma</a:t>
+            <a:t>Maior</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0">
@@ -44540,87 +44016,9 @@
               </a:solidFill>
               <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t> de Pagamento Total</a:t>
+            <a:t> faixa etária por Mês</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>335757</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>347664</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="'TABELAS-GERAIS'!F13">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CaixaDeTexto 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4602957" y="440532"/>
-          <a:ext cx="2450307" cy="297656"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:fld id="{1C9F294C-1CC1-4A98-8EF4-AD5AB9C4A9CF}" type="TxLink">
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr/>
-            <a:t>40</a:t>
-          </a:fld>
-          <a:endParaRPr lang="pt-BR" sz="3200" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -44644,7 +44042,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>188119</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="'TABELAS-GERAIS'!C5">
+    <xdr:sp macro="" textlink="'TABELAS-GERAIS'!I8">
       <xdr:nvSpPr>
         <xdr:cNvPr id="49" name="CaixaDeTexto 48">
           <a:extLst>
@@ -44686,17 +44084,16 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:fld id="{EC263A05-A327-47D1-9D2A-18301522C7D1}" type="TxLink">
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+          <a:fld id="{522B9BF0-8BC3-4E74-ABDD-5C34A066D3DA}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:pPr/>
-            <a:t>54</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5400" b="1">
             <a:solidFill>
@@ -44722,7 +44119,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>30957</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="'TABELAS-GERAIS'!C6">
+    <xdr:sp macro="" textlink="'TABELAS-GERAIS'!B53">
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="CaixaDeTexto 49">
           <a:extLst>
@@ -44764,19 +44161,18 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:fld id="{AF8FB378-D260-434C-BA18-33606D785363}" type="TxLink">
+          <a:fld id="{A707F1DB-6092-4145-8621-DD606BBD02CE}" type="TxLink">
             <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:pPr/>
-            <a:t>36</a:t>
+            <a:t>EXCELENTE</a:t>
           </a:fld>
-          <a:endParaRPr lang="pt-BR" sz="5400" b="1">
+          <a:endParaRPr lang="pt-BR" sz="8800" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -44800,7 +44196,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>97974</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="'TABELAS-GERAIS'!C7">
+    <xdr:sp macro="" textlink="'TABELAS-GERAIS'!E63">
       <xdr:nvSpPr>
         <xdr:cNvPr id="51" name="CaixaDeTexto 50">
           <a:extLst>
@@ -44842,97 +44238,18 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:fld id="{CAAFBF7B-4C4F-4BC1-82C8-487DADAF6461}" type="TxLink">
+          <a:fld id="{38DB0CFE-8320-4FA2-B9EB-2B419CC2742A}" type="TxLink">
             <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:pPr/>
-            <a:t>54</a:t>
+            <a:t>16</a:t>
           </a:fld>
-          <a:endParaRPr lang="pt-BR" sz="5400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>234384</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2723</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>246291</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>109879</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="'TABELAS-GERAIS'!C8">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CaixaDeTexto 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16083984" y="574223"/>
-          <a:ext cx="2450307" cy="297656"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:fld id="{5985FEC6-7B8E-48B3-98F3-189D24973090}" type="TxLink">
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr/>
-            <a:t>144</a:t>
-          </a:fld>
-          <a:endParaRPr lang="pt-BR" sz="5400" b="1">
+          <a:endParaRPr lang="pt-BR" sz="8800" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -44973,7 +44290,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -45009,7 +44326,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -45045,10 +44362,387 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>59730</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>75657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>430457</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>72414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Imagem 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD7B96E-237D-4414-BD71-7496D78595B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3741509" y="5460945"/>
+          <a:ext cx="370727" cy="381421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>604074</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>300678</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Imagem 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82325BAE-D1DC-4236-9B16-36AB24F44D04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11035781" y="5504351"/>
+          <a:ext cx="310234" cy="311394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>503725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>155696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Imagem 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439479E4-D00A-4288-8C1F-49F2EEABAA11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3828317" y="1529495"/>
+          <a:ext cx="357187" cy="357187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102808</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>124623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Imagem 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9742F113-E0D6-4B2B-A1BC-4A43546CD15A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6747076" y="351656"/>
+          <a:ext cx="721917" cy="702235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>482353</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>34847</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>24749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Imagem 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717883B2-B66A-4300-A622-B98A5B02703E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9542719" y="368601"/>
+          <a:ext cx="760543" cy="771270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>309009</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>371708</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Imagem 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E9720D-170D-46F0-92FB-53DBECF7AF1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12389497" y="401729"/>
+          <a:ext cx="666723" cy="666930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171335</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180048</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>69695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'TABELAS-GERAIS'!I7">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="CaixaDeTexto 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F96AC53-DBF2-43FA-957D-24B90B573FD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419628" y="460454"/>
+          <a:ext cx="2424810" cy="352656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{52A98411-C953-4F6A-AF49-1DF99CFB035C}" type="TxLink">
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>600</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="19900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -52366,6 +52060,1524 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tabela dinâmica10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="B50:C54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de FEEDBACK" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Tabela dinâmica12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B2:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de LUCRO" fld="1" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela dinâmica16" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B2:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de SEGUIDORES" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="Tabela dinâmica19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="K2:N7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="9">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="-MANICURE-VIZUALIZAÇÃO" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="-CÍLIOS VIZUALIZAÇÃO" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="-SOBRANCELHA VIZUALIZAÇÃO" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica18" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="H2:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de STORYS VIZUALIZAÇÃO" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="9">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabela dinâmica17" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="E2:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de NOVOS SEGUIDORES" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000005000000}" name="Tabela dinâmica8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="H2:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item h="1" sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item h="1" sd="0" x="2"/>
+        <item h="1" sd="0" x="3"/>
+        <item h="1" sd="0" x="4"/>
+        <item h="1" sd="0" x="5"/>
+        <item h="1" sd="0" x="6"/>
+        <item h="1" sd="0" x="7"/>
+        <item h="1" sd="0" x="8"/>
+        <item h="1" sd="0" x="9"/>
+        <item h="1" sd="0" x="10"/>
+        <item h="1" sd="0" x="11"/>
+        <item h="1" sd="0" x="12"/>
+        <item h="1" sd="0" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de CLIENTE" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="Tabela dinâmica7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="E4:F14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
@@ -52744,14 +53956,14 @@
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
       <items count="8">
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
         <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
+        <item x="2"/>
+        <item x="3"/>
       </items>
     </pivotField>
     <pivotField numFmtId="20" showAll="0"/>
@@ -52810,25 +54022,25 @@
       <x/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="8"/>
     </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="5"/>
     </i>
     <i>
       <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i>
       <x v="7"/>
@@ -52869,576 +54081,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="Tabela dinâmica15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="K2:N7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="-LUCRO" fld="1" baseField="0" baseItem="2"/>
-    <dataField name="-GASTOS" fld="2" baseField="0" baseItem="2"/>
-    <dataField name="-LUCRO REAL" fld="3" baseField="0" baseItem="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="39">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="Tabela dinâmica19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="K2:N7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="9">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="-MANICURE-VIZUALIZAÇÃO" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="-CÍLIOS VIZUALIZAÇÃO" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="-SOBRANCELHA VIZUALIZAÇÃO" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Tabela dinâmica18" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="H2:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de STORYS VIZUALIZAÇÃO" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="9">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabela dinâmica17" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="E2:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de NOVOS SEGUIDORES" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela dinâmica16" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B2:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de SEGUIDORES" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="Tabela dinâmica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B4:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
@@ -53881,7 +54524,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="1" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Contagem de FORMA DE PAGAMENTO" fld="6" subtotal="count" baseField="0" baseItem="0"/>
@@ -53945,7 +54588,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="K25:L35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
@@ -54458,7 +55101,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="Tabela dinâmica11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="E50:F64" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
@@ -54853,7 +55496,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="14">
         <item x="0"/>
         <item x="1"/>
@@ -54870,6 +55513,15 @@
         <item x="12"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0">
       <items count="14">
@@ -54895,31 +55547,19 @@
   </rowFields>
   <rowItems count="14">
     <i>
-      <x/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="11"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="12"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="9"/>
@@ -54928,10 +55568,22 @@
       <x v="10"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -54941,7 +55593,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="1" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Contagem de CLIENTE" fld="3" subtotal="count" baseField="0" baseItem="0"/>
@@ -55125,432 +55777,27 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tabela dinâmica10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="B50:C54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="369">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="Tabela dinâmica15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="K2:N7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="20" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="7"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -55560,21 +55807,39 @@
     <i>
       <x v="2"/>
     </i>
+    <i>
+      <x v="3"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Contagem de FEEDBACK" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  <dataFields count="3">
+    <dataField name="-LUCRO" fld="1" baseField="0" baseItem="2"/>
+    <dataField name="-GASTOS" fld="2" baseField="0" baseItem="2"/>
+    <dataField name="-LUCRO REAL" fld="3" baseField="0" baseItem="2"/>
   </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="1" format="1" series="1">
+  <formats count="1">
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -55583,37 +55848,19 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="2">
+    <chartFormat chart="0" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="4">
+    <chartFormat chart="0" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -55632,462 +55879,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000005000000}" name="Tabela dinâmica8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="H2:I4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="20" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item h="1" sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item h="1" sd="0" x="2"/>
-        <item h="1" sd="0" x="3"/>
-        <item h="1" sd="0" x="4"/>
-        <item h="1" sd="0" x="5"/>
-        <item h="1" sd="0" x="6"/>
-        <item h="1" sd="0" x="7"/>
-        <item h="1" sd="0" x="8"/>
-        <item h="1" sd="0" x="9"/>
-        <item h="1" sd="0" x="10"/>
-        <item h="1" sd="0" x="11"/>
-        <item h="1" sd="0" x="12"/>
-        <item h="1" sd="0" x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de CLIENTE" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="Tabela dinâmica14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="H2:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -56131,7 +55923,7 @@
     <dataField name="Soma de LUCRO REAL" fld="3" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="36">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -56158,7 +55950,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="E2:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -56202,7 +55994,7 @@
     <dataField name="Soma de GASTOS" fld="2" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="37">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -56277,77 +56069,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Tabela dinâmica12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B2:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de LUCRO" fld="1" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="38">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_MÊS1" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="MÊS">
   <pivotTables>
@@ -56405,14 +56126,14 @@
   <data>
     <tabular pivotCacheId="1">
       <items count="8">
-        <i x="0"/>
+        <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="2"/>
-        <i x="3"/>
-        <i x="6" nd="1"/>
-        <i x="4" nd="1"/>
-        <i x="7" nd="1"/>
-        <i x="5" nd="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="5" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -56470,12 +56191,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B3:J603" totalsRowShown="0">
   <autoFilter ref="B3:J603" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MÊS" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="HORARIO" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MÊS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="HORARIO" dataDxfId="23"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CLIENTE"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PROCEDIMENTO" dataDxfId="42" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="VALOR" dataDxfId="41" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PROCEDIMENTO" dataDxfId="22" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="VALOR" dataDxfId="21" dataCellStyle="Moeda"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FORMA DE PAGAMENTO"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FEEDBACK"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="FAIXA ETÁRIA"/>
@@ -56489,7 +56210,7 @@
   <autoFilter ref="L3:O7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="MÊS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="LUCRO" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="LUCRO" dataDxfId="20"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="GASTOS" dataCellStyle="Moeda"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="LUCRO REAL" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela2[[#This Row],[LUCRO]]-Tabela2[[#This Row],[GASTOS]]</calculatedColumnFormula>
@@ -74685,17 +74406,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="37" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView zoomScale="62" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" customWidth="1"/>
@@ -74707,13 +74428,13 @@
         <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>303</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>311</v>
@@ -74724,10 +74445,10 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H3" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I3" s="10">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="10"/>
@@ -74746,7 +74467,7 @@
         <v>327</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I4" s="10">
         <v>144</v>
@@ -74759,13 +74480,19 @@
         <v>32</v>
       </c>
       <c r="C5" s="10">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>269</v>
       </c>
       <c r="F5" s="10">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="I5" s="10">
+        <v>164</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="10"/>
@@ -74775,13 +74502,19 @@
         <v>34</v>
       </c>
       <c r="C6" s="10">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F6" s="10">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="I6" s="10">
+        <v>209</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="10"/>
@@ -74791,13 +74524,19 @@
         <v>33</v>
       </c>
       <c r="C7" s="10">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F7" s="10">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="I7" s="10">
+        <v>600</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="10"/>
@@ -74807,45 +74546,45 @@
         <v>312</v>
       </c>
       <c r="C8" s="10">
-        <v>144</v>
+        <v>600</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="10">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E9" s="9" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F9" s="10">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E10" s="9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F10" s="10">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E11" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" s="10">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E12" s="9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12" s="10">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -74853,7 +74592,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="10">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -74861,7 +74600,7 @@
         <v>312</v>
       </c>
       <c r="F14" s="10">
-        <v>144</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="11:12" x14ac:dyDescent="0.25">
@@ -74965,13 +74704,13 @@
         <v>303</v>
       </c>
       <c r="C48" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>303</v>
       </c>
       <c r="F48" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -74990,44 +74729,44 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C51" s="10">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="E51" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F51" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C52" s="10">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="E52" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F52" s="10">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C53" s="10">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="E53" s="9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F53" s="10">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -75035,45 +74774,45 @@
         <v>312</v>
       </c>
       <c r="C54" s="10">
-        <v>144</v>
+        <v>600</v>
       </c>
       <c r="E54" s="9">
         <v>22</v>
       </c>
       <c r="F54" s="10">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E55" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F55" s="10">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E56" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F56" s="10">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E57" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F57" s="10">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E58" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F58" s="10">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -75081,39 +74820,39 @@
         <v>32</v>
       </c>
       <c r="F59" s="10">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E60" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F60" s="10">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E61" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F61" s="10">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E62" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F62" s="10">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E63" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F63" s="10">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -75121,7 +74860,7 @@
         <v>312</v>
       </c>
       <c r="F64" s="10">
-        <v>144</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -75593,7 +75332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="42" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -75614,7 +75353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -75635,7 +75374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -75656,7 +75395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="43" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
